--- a/backend/src/excel_handler/files/BBAR.xlsx
+++ b/backend/src/excel_handler/files/BBAR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>30-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1933800.15</v>
+        <v>6655479.17</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80575.00999999999</v>
+        <v>170653.31</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>217345.2</v>
+        <v>238983.06</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>79797.73</v>
+        <v>79860.31</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>283410.38</v>
+        <v>282971.89</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>117598.49</v>
+        <v>117234.06</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9972.290000000001</v>
+        <v>10109.72</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>182107.68</v>
+        <v>176757.73</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>210245.17</v>
+        <v>209910.1</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>89992.64</v>
+        <v>80091.08</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>96912.97</v>
+        <v>96722.13</v>
       </c>
     </row>
     <row r="13">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>84874.47</v>
+        <v>84764.14</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>60278.58</v>
+        <v>60362.56</v>
       </c>
     </row>
     <row r="15">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>61867.72</v>
+        <v>61943.59</v>
       </c>
     </row>
     <row r="16">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>98026.66</v>
+        <v>98044.89999999999</v>
       </c>
     </row>
     <row r="17">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>37103.24</v>
+        <v>37039.07</v>
       </c>
     </row>
     <row r="18">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>27071.77</v>
+        <v>30653.83</v>
       </c>
     </row>
     <row r="19">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>17476.48</v>
+        <v>17443.02</v>
       </c>
     </row>
     <row r="20">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>68333.31</v>
+        <v>58270.58</v>
       </c>
     </row>
     <row r="21">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>46524.44</v>
+        <v>84049.78</v>
       </c>
     </row>
     <row r="22">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29352.92</v>
+        <v>29343.6</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>9470.24</v>
+        <v>9496.469999999999</v>
       </c>
     </row>
     <row r="24">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>54177.59</v>
+        <v>54260.57</v>
       </c>
     </row>
     <row r="25">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>23209.92</v>
+        <v>23159.68</v>
       </c>
     </row>
     <row r="26">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2430.42</v>
+        <v>2424.18</v>
       </c>
     </row>
     <row r="27">
@@ -697,7 +697,157 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>26219.84</v>
+        <v>26225.54</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>CMA acciones</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>187769.35</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Delta acciones</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>42498.8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>278594.67</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Lombardi</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>30710.1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>MAF</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>16221.41</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Superfondo </t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1093909.15</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Alpha planeam equil</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>11572.31</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Alpha renta balan global</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>646394.6899999999</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Delta gestion V</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>24774.58</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta ex Mercosur</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>19994.53</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Supergestion</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>469797.4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Compass Crecim</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>736365.6800000001</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Goal acciones plus</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>5376.88</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Ieb Value</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>2424.18</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Supefondo RV</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1118953.85</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BBAR.xlsx
+++ b/backend/src/excel_handler/files/BBAR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,415 +439,543 @@
           <t>30-12-2022</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6655479.17</v>
+        <v>84049.78</v>
+      </c>
+      <c r="C2" t="n">
+        <v>94509.85000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>170653.31</v>
+        <v>238983.06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>238818.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Adcap</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>238983.06</v>
+        <v>29343.6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>29313.29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>79860.31</v>
+        <v>17443.02</v>
+      </c>
+      <c r="C5" t="n">
+        <v>17364.12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>282971.89</v>
+        <v>79860.31</v>
+      </c>
+      <c r="C6" t="n">
+        <v>79846.41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>117234.06</v>
+        <v>282971.89</v>
+      </c>
+      <c r="C7" t="n">
+        <v>328410.27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10109.72</v>
+        <v>11572.31</v>
+      </c>
+      <c r="C8" t="n">
+        <v>11574.97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>176757.73</v>
+        <v>646394.6899999999</v>
+      </c>
+      <c r="C9" t="n">
+        <v>646692.49</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>209910.1</v>
+        <v>9496.469999999999</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9504.719999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>80091.08</v>
+        <v>19994.53</v>
+      </c>
+      <c r="C11" t="n">
+        <v>19996.28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>96722.13</v>
+        <v>117234.06</v>
+      </c>
+      <c r="C12" t="n">
+        <v>146514.67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>84764.14</v>
+        <v>187769.35</v>
+      </c>
+      <c r="C13" t="n">
+        <v>187839.74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Compass Crecim</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>60362.56</v>
+        <v>736365.6800000001</v>
+      </c>
+      <c r="C14" t="n">
+        <v>731281.3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>61943.59</v>
+        <v>10109.72</v>
+      </c>
+      <c r="C15" t="n">
+        <v>10230.37</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>98044.89999999999</v>
+        <v>278594.67</v>
+      </c>
+      <c r="C16" t="n">
+        <v>277593.58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Delta acciones</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>37039.07</v>
+        <v>42498.8</v>
+      </c>
+      <c r="C17" t="n">
+        <v>42544.86</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>30653.83</v>
+        <v>24774.58</v>
+      </c>
+      <c r="C18" t="n">
+        <v>25359.32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>17443.02</v>
+        <v>176757.73</v>
+      </c>
+      <c r="C19" t="n">
+        <v>184135.65</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>58270.58</v>
+        <v>209910.1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>219846.69</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Gainvest</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>84049.78</v>
+        <v>54260.57</v>
+      </c>
+      <c r="C21" t="n">
+        <v>54382.44</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29343.6</v>
+        <v>23159.68</v>
+      </c>
+      <c r="C22" t="n">
+        <v>23186.18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>9496.469999999999</v>
+        <v>5376.88</v>
+      </c>
+      <c r="C23" t="n">
+        <v>5375.02</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Gainvest</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>54260.57</v>
+        <v>80091.08</v>
+      </c>
+      <c r="C24" t="n">
+        <v>95060.08</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>23159.68</v>
+        <v>96722.13</v>
+      </c>
+      <c r="C25" t="n">
+        <v>102176.73</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2424.18</v>
+        <v>30653.83</v>
+      </c>
+      <c r="C26" t="n">
+        <v>30650.72</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>IEB</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>26225.54</v>
+        <v>2424.18</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3618.11</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>Ieb Value</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>187769.35</v>
+        <v>2424.18</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3618.11</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>42498.8</v>
+        <v>30710.1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>37116.79</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>278594.67</v>
+        <v>16221.41</v>
+      </c>
+      <c r="C30" t="n">
+        <v>16184.43</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>30710.1</v>
+        <v>26225.54</v>
+      </c>
+      <c r="C31" t="n">
+        <v>26248.2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>16221.41</v>
+        <v>61943.59</v>
+      </c>
+      <c r="C32" t="n">
+        <v>69990.33</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1093909.15</v>
+        <v>98044.89999999999</v>
+      </c>
+      <c r="C33" t="n">
+        <v>98147.53999999999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>11572.31</v>
+        <v>58270.58</v>
+      </c>
+      <c r="C34" t="n">
+        <v>58260.09</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>646394.6899999999</v>
+        <v>84764.14</v>
+      </c>
+      <c r="C35" t="n">
+        <v>84985.53999999999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>24774.58</v>
+        <v>60362.56</v>
+      </c>
+      <c r="C36" t="n">
+        <v>60333.63</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19994.53</v>
+        <v>1118953.85</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1120946.22</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>469797.4</v>
+        <v>1093909.15</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1181522.05</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecim</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>736365.6800000001</v>
+        <v>469797.4</v>
+      </c>
+      <c r="C39" t="n">
+        <v>469846.65</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5376.88</v>
+        <v>37039.07</v>
+      </c>
+      <c r="C40" t="n">
+        <v>37010.05</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2424.18</v>
+        <v>170653.31</v>
+      </c>
+      <c r="C41" t="n">
+        <v>176411.17</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1118953.85</v>
+        <v>6655479.17</v>
+      </c>
+      <c r="C42" t="n">
+        <v>6880035.69</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BBAR.xlsx
+++ b/backend/src/excel_handler/files/BBAR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,415 +439,543 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7455481.48</v>
+        <v>94509.85000000001</v>
+      </c>
+      <c r="C2" t="n">
+        <v>94534.46000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>191166.19</v>
+        <v>238818.2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>239270.73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>94509.85000000001</v>
+        <v>29313.29</v>
+      </c>
+      <c r="C4" t="n">
+        <v>31308.64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>238818.2</v>
+        <v>17364.12</v>
+      </c>
+      <c r="C5" t="n">
+        <v>17412.14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Adcap IOL Acciones Argentina</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29313.29</v>
+        <v>79846.41</v>
+      </c>
+      <c r="C6" t="n">
+        <v>98190.67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17364.12</v>
+        <v>328410.27</v>
+      </c>
+      <c r="C7" t="n">
+        <v>328385.78</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha Mercosur</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>79846.41</v>
+        <v>579063.9</v>
+      </c>
+      <c r="C8" t="n">
+        <v>609869.29</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>328410.27</v>
+        <v>11574.97</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7285.59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mercosur</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>579063.9</v>
+        <v>646692.49</v>
+      </c>
+      <c r="C10" t="n">
+        <v>646095.37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11574.97</v>
+        <v>9504.719999999999</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9488.530000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>646692.49</v>
+        <v>19996.28</v>
+      </c>
+      <c r="C12" t="n">
+        <v>20004.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9504.719999999999</v>
+        <v>146514.67</v>
+      </c>
+      <c r="C13" t="n">
+        <v>233548.68</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19996.28</v>
+        <v>187839.74</v>
+      </c>
+      <c r="C14" t="n">
+        <v>187844.01</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>146514.67</v>
+        <v>731281.3</v>
+      </c>
+      <c r="C15" t="n">
+        <v>729452.8199999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>187839.74</v>
+        <v>10230.37</v>
+      </c>
+      <c r="C16" t="n">
+        <v>9913.58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>731281.3</v>
+        <v>42544.86</v>
+      </c>
+      <c r="C17" t="n">
+        <v>42414.27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>10230.37</v>
+        <v>277593.58</v>
+      </c>
+      <c r="C18" t="n">
+        <v>277861.58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>42544.86</v>
+        <v>25359.32</v>
+      </c>
+      <c r="C19" t="n">
+        <v>25472.07</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>277593.58</v>
+        <v>184135.65</v>
+      </c>
+      <c r="C20" t="n">
+        <v>183557.94</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>25359.32</v>
+        <v>219846.69</v>
+      </c>
+      <c r="C21" t="n">
+        <v>230285.08</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>184135.65</v>
+        <v>54382.44</v>
+      </c>
+      <c r="C22" t="n">
+        <v>54419.07</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>219846.69</v>
+        <v>23186.18</v>
+      </c>
+      <c r="C23" t="n">
+        <v>23208.67</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Gainvest Renta Variable</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>54382.44</v>
+        <v>5375.02</v>
+      </c>
+      <c r="C24" t="n">
+        <v>5374.26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>23186.18</v>
+        <v>95060.08</v>
+      </c>
+      <c r="C25" t="n">
+        <v>95107.03999999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5375.02</v>
+        <v>102176.73</v>
+      </c>
+      <c r="C26" t="n">
+        <v>112199.76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>95060.08</v>
+        <v>30650.72</v>
+      </c>
+      <c r="C27" t="n">
+        <v>32094.72</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>102176.73</v>
+        <v>3618.11</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3617.28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>30650.72</v>
+        <v>37116.79</v>
+      </c>
+      <c r="C29" t="n">
+        <v>41361.28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3618.11</v>
+        <v>16184.43</v>
+      </c>
+      <c r="C30" t="n">
+        <v>16218.33</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>37116.79</v>
+        <v>26248.2</v>
+      </c>
+      <c r="C31" t="n">
+        <v>26182.15</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>16184.43</v>
+        <v>69990.33</v>
+      </c>
+      <c r="C32" t="n">
+        <v>79872.56</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>26248.2</v>
+        <v>98147.53999999999</v>
+      </c>
+      <c r="C33" t="n">
+        <v>98071.52</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>69990.33</v>
+        <v>58260.09</v>
+      </c>
+      <c r="C34" t="n">
+        <v>58343.03</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>98147.53999999999</v>
+        <v>84985.53999999999</v>
+      </c>
+      <c r="C35" t="n">
+        <v>84911.81</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>58260.09</v>
+        <v>60333.63</v>
+      </c>
+      <c r="C36" t="n">
+        <v>60354.15</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>84985.53999999999</v>
+        <v>1120946.22</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1119813.64</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>60333.63</v>
+        <v>1181522.05</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1182138.57</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1120946.22</v>
+        <v>469846.65</v>
+      </c>
+      <c r="C39" t="n">
+        <v>470155.03</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181522.05</v>
+        <v>37010.05</v>
+      </c>
+      <c r="C40" t="n">
+        <v>37052.93</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>469846.65</v>
+        <v>191166.19</v>
+      </c>
+      <c r="C41" t="n">
+        <v>195453.62</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>37010.05</v>
+        <v>7455481.48</v>
+      </c>
+      <c r="C42" t="n">
+        <v>7622691.23</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BBAR.xlsx
+++ b/backend/src/excel_handler/files/BBAR.xlsx
@@ -636,9 +636,7 @@
       <c r="B16" t="n">
         <v>10230.37</v>
       </c>
-      <c r="C16" t="n">
-        <v>9913.58</v>
-      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -649,9 +647,7 @@
       <c r="B17" t="n">
         <v>42544.86</v>
       </c>
-      <c r="C17" t="n">
-        <v>42414.27</v>
-      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -662,9 +658,7 @@
       <c r="B18" t="n">
         <v>277593.58</v>
       </c>
-      <c r="C18" t="n">
-        <v>277861.58</v>
-      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -675,9 +669,7 @@
       <c r="B19" t="n">
         <v>25359.32</v>
       </c>
-      <c r="C19" t="n">
-        <v>25472.07</v>
-      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -688,9 +680,7 @@
       <c r="B20" t="n">
         <v>184135.65</v>
       </c>
-      <c r="C20" t="n">
-        <v>183557.94</v>
-      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -844,9 +834,7 @@
       <c r="B32" t="n">
         <v>69990.33</v>
       </c>
-      <c r="C32" t="n">
-        <v>79872.56</v>
-      </c>
+      <c r="C32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -962,7 +950,7 @@
         <v>191166.19</v>
       </c>
       <c r="C41" t="n">
-        <v>195453.62</v>
+        <v>212230.28</v>
       </c>
     </row>
     <row r="42">
@@ -975,7 +963,7 @@
         <v>7455481.48</v>
       </c>
       <c r="C42" t="n">
-        <v>7622691.23</v>
+        <v>7003599.23</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BBAR.xlsx
+++ b/backend/src/excel_handler/files/BBAR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,32 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>17-02-2023</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>24-02-2023</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>03-03-2023</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>10-03-2023</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>17-03-2023</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>23-03-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>94509.85000000001</v>
+        <v>95306.99000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>94534.46000000001</v>
+        <v>95500.3</v>
       </c>
       <c r="D2" t="n">
-        <v>120949.27</v>
+        <v>95148.88</v>
       </c>
       <c r="E2" t="n">
-        <v>129663.93</v>
+        <v>95493.73</v>
       </c>
       <c r="F2" t="n">
-        <v>138708.8</v>
+        <v>95477.22</v>
       </c>
       <c r="G2" t="n">
-        <v>138595.66</v>
-      </c>
-      <c r="H2" t="n">
-        <v>147325.09</v>
-      </c>
-      <c r="I2" t="n">
-        <v>111476.18</v>
-      </c>
-      <c r="J2" t="n">
-        <v>103534.56</v>
-      </c>
-      <c r="K2" t="n">
-        <v>95373.24000000001</v>
-      </c>
-      <c r="L2" t="n">
-        <v>95481.87</v>
-      </c>
-      <c r="M2" t="n">
-        <v>95306.99000000001</v>
+        <v>95295.84</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>238818.2</v>
+        <v>267713.53</v>
       </c>
       <c r="C3" t="n">
-        <v>239270.73</v>
+        <v>258287.19</v>
       </c>
       <c r="D3" t="n">
-        <v>238977.22</v>
+        <v>257827.77</v>
       </c>
       <c r="E3" t="n">
-        <v>253303.32</v>
+        <v>258396.43</v>
       </c>
       <c r="F3" t="n">
-        <v>253477.7</v>
+        <v>258606.36</v>
       </c>
       <c r="G3" t="n">
-        <v>253164.49</v>
-      </c>
-      <c r="H3" t="n">
-        <v>237593.18</v>
-      </c>
-      <c r="I3" t="n">
-        <v>237428.43</v>
-      </c>
-      <c r="J3" t="n">
-        <v>237561.09</v>
-      </c>
-      <c r="K3" t="n">
-        <v>245926.4</v>
-      </c>
-      <c r="L3" t="n">
-        <v>246503.83</v>
-      </c>
-      <c r="M3" t="n">
-        <v>267713.53</v>
+        <v>258645.83</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29313.29</v>
+        <v>31337.46</v>
       </c>
       <c r="C4" t="n">
-        <v>31308.64</v>
+        <v>31345.9</v>
       </c>
       <c r="D4" t="n">
-        <v>31301.64</v>
+        <v>31049.04</v>
       </c>
       <c r="E4" t="n">
-        <v>31258</v>
+        <v>31340.98</v>
       </c>
       <c r="F4" t="n">
-        <v>31348.14</v>
+        <v>31263.97</v>
       </c>
       <c r="G4" t="n">
-        <v>31219.13</v>
-      </c>
-      <c r="H4" t="n">
-        <v>31259.28</v>
-      </c>
-      <c r="I4" t="n">
-        <v>31293.93</v>
-      </c>
-      <c r="J4" t="n">
-        <v>31377.84</v>
-      </c>
-      <c r="K4" t="n">
-        <v>31276.89</v>
-      </c>
-      <c r="L4" t="n">
-        <v>31287.89</v>
-      </c>
-      <c r="M4" t="n">
-        <v>31337.46</v>
+        <v>31279.04</v>
       </c>
     </row>
     <row r="5">
@@ -631,40 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17364.12</v>
+        <v>26044.79</v>
       </c>
       <c r="C5" t="n">
-        <v>17412.14</v>
+        <v>34207.29</v>
       </c>
       <c r="D5" t="n">
-        <v>17463.84</v>
+        <v>34004.32</v>
       </c>
       <c r="E5" t="n">
-        <v>26143.8</v>
+        <v>34202.5</v>
       </c>
       <c r="F5" t="n">
-        <v>26024.24</v>
+        <v>59253.95</v>
       </c>
       <c r="G5" t="n">
-        <v>26186.73</v>
-      </c>
-      <c r="H5" t="n">
-        <v>26112.32</v>
-      </c>
-      <c r="I5" t="n">
-        <v>26132.01</v>
-      </c>
-      <c r="J5" t="n">
-        <v>26148.7</v>
-      </c>
-      <c r="K5" t="n">
-        <v>26077.08</v>
-      </c>
-      <c r="L5" t="n">
-        <v>26134.81</v>
-      </c>
-      <c r="M5" t="n">
-        <v>26044.79</v>
+        <v>67349.66</v>
       </c>
     </row>
     <row r="6">
@@ -674,40 +572,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>79846.41</v>
+        <v>98139.36</v>
       </c>
       <c r="C6" t="n">
-        <v>98190.67</v>
+        <v>98199.8</v>
       </c>
       <c r="D6" t="n">
-        <v>98213.47</v>
+        <v>97918.86</v>
       </c>
       <c r="E6" t="n">
-        <v>98233.36</v>
+        <v>98251.97</v>
       </c>
       <c r="F6" t="n">
-        <v>98258.06</v>
+        <v>98340.22</v>
       </c>
       <c r="G6" t="n">
-        <v>98259.50999999999</v>
-      </c>
-      <c r="H6" t="n">
-        <v>98096.97</v>
-      </c>
-      <c r="I6" t="n">
-        <v>98125.27</v>
-      </c>
-      <c r="J6" t="n">
-        <v>98226.82000000001</v>
-      </c>
-      <c r="K6" t="n">
-        <v>98385.07000000001</v>
-      </c>
-      <c r="L6" t="n">
-        <v>98192.17</v>
-      </c>
-      <c r="M6" t="n">
-        <v>98139.36</v>
+        <v>98375.77</v>
       </c>
     </row>
     <row r="7">
@@ -717,40 +597,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>328410.27</v>
+        <v>328317.34</v>
       </c>
       <c r="C7" t="n">
-        <v>328385.78</v>
+        <v>328891.97</v>
       </c>
       <c r="D7" t="n">
-        <v>328978.28</v>
+        <v>327633.73</v>
       </c>
       <c r="E7" t="n">
-        <v>328639.26</v>
+        <v>328735.22</v>
       </c>
       <c r="F7" t="n">
-        <v>328450.62</v>
+        <v>328861.63</v>
       </c>
       <c r="G7" t="n">
-        <v>328978.5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>328667</v>
-      </c>
-      <c r="I7" t="n">
-        <v>328288.18</v>
-      </c>
-      <c r="J7" t="n">
-        <v>328356.47</v>
-      </c>
-      <c r="K7" t="n">
-        <v>328258.84</v>
-      </c>
-      <c r="L7" t="n">
-        <v>328495.53</v>
-      </c>
-      <c r="M7" t="n">
-        <v>328317.34</v>
+        <v>328819.56</v>
       </c>
     </row>
     <row r="8">
@@ -760,40 +622,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>579063.9</v>
+        <v>609769.3199999999</v>
       </c>
       <c r="C8" t="n">
-        <v>609869.29</v>
+        <v>609752.05</v>
       </c>
       <c r="D8" t="n">
-        <v>609991.74</v>
+        <v>608375.35</v>
       </c>
       <c r="E8" t="n">
-        <v>610019.79</v>
+        <v>609906.8100000001</v>
       </c>
       <c r="F8" t="n">
-        <v>610096.85</v>
+        <v>609897.89</v>
       </c>
       <c r="G8" t="n">
-        <v>609931.85</v>
-      </c>
-      <c r="H8" t="n">
-        <v>610023.09</v>
-      </c>
-      <c r="I8" t="n">
-        <v>609838.36</v>
-      </c>
-      <c r="J8" t="n">
-        <v>609747.87</v>
-      </c>
-      <c r="K8" t="n">
-        <v>610071.08</v>
-      </c>
-      <c r="L8" t="n">
-        <v>609740.17</v>
-      </c>
-      <c r="M8" t="n">
-        <v>609769.3199999999</v>
+        <v>610049.65</v>
       </c>
     </row>
     <row r="9">
@@ -803,40 +647,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11574.97</v>
+        <v>12893.38</v>
       </c>
       <c r="C9" t="n">
-        <v>7285.59</v>
+        <v>12869.85</v>
       </c>
       <c r="D9" t="n">
-        <v>7287.83</v>
+        <v>12831.99</v>
       </c>
       <c r="E9" t="n">
-        <v>7294.14</v>
+        <v>12885.16</v>
       </c>
       <c r="F9" t="n">
-        <v>7261.99</v>
+        <v>12863.38</v>
       </c>
       <c r="G9" t="n">
-        <v>12891.35</v>
-      </c>
-      <c r="H9" t="n">
-        <v>12887.05</v>
-      </c>
-      <c r="I9" t="n">
-        <v>12862.96</v>
-      </c>
-      <c r="J9" t="n">
-        <v>12867.03</v>
-      </c>
-      <c r="K9" t="n">
-        <v>12881.53</v>
-      </c>
-      <c r="L9" t="n">
-        <v>12853.47</v>
-      </c>
-      <c r="M9" t="n">
-        <v>12893.38</v>
+        <v>12870.34</v>
       </c>
     </row>
     <row r="10">
@@ -846,40 +672,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>646692.49</v>
+        <v>647168.17</v>
       </c>
       <c r="C10" t="n">
-        <v>646095.37</v>
+        <v>647385.99</v>
       </c>
       <c r="D10" t="n">
-        <v>645145.4399999999</v>
+        <v>644864.8199999999</v>
       </c>
       <c r="E10" t="n">
-        <v>645392.1899999999</v>
+        <v>645176.34</v>
       </c>
       <c r="F10" t="n">
-        <v>646627.1800000001</v>
+        <v>648950.35</v>
       </c>
       <c r="G10" t="n">
-        <v>645967.61</v>
-      </c>
-      <c r="H10" t="n">
-        <v>646210.8100000001</v>
-      </c>
-      <c r="I10" t="n">
-        <v>646379.33</v>
-      </c>
-      <c r="J10" t="n">
-        <v>646297.29</v>
-      </c>
-      <c r="K10" t="n">
-        <v>645239.6800000001</v>
-      </c>
-      <c r="L10" t="n">
-        <v>644836.04</v>
-      </c>
-      <c r="M10" t="n">
-        <v>647168.17</v>
+        <v>649019.87</v>
       </c>
     </row>
     <row r="11">
@@ -889,40 +697,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9504.719999999999</v>
+        <v>1123.62</v>
       </c>
       <c r="C11" t="n">
-        <v>9488.530000000001</v>
+        <v>1124.89</v>
       </c>
       <c r="D11" t="n">
-        <v>9501.219999999999</v>
+        <v>1121.12</v>
       </c>
       <c r="E11" t="n">
-        <v>9515.66</v>
+        <v>1124.46</v>
       </c>
       <c r="F11" t="n">
-        <v>9474.629999999999</v>
+        <v>1122.81</v>
       </c>
       <c r="G11" t="n">
-        <v>9467.25</v>
-      </c>
-      <c r="H11" t="n">
-        <v>9491.379999999999</v>
-      </c>
-      <c r="I11" t="n">
-        <v>9479.07</v>
-      </c>
-      <c r="J11" t="n">
-        <v>9458.91</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1124.04</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1122.98</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1123.62</v>
+        <v>1125.54</v>
       </c>
     </row>
     <row r="12">
@@ -932,40 +722,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19996.28</v>
+        <v>20009.25</v>
       </c>
       <c r="C12" t="n">
-        <v>20004.2</v>
+        <v>19985.06</v>
       </c>
       <c r="D12" t="n">
-        <v>20003.86</v>
+        <v>19076.79</v>
       </c>
       <c r="E12" t="n">
-        <v>20014.74</v>
+        <v>19098.76</v>
       </c>
       <c r="F12" t="n">
-        <v>20012.6</v>
+        <v>19123.46</v>
       </c>
       <c r="G12" t="n">
-        <v>19991.8</v>
-      </c>
-      <c r="H12" t="n">
-        <v>19988.13</v>
-      </c>
-      <c r="I12" t="n">
-        <v>20013.25</v>
-      </c>
-      <c r="J12" t="n">
-        <v>19986.79</v>
-      </c>
-      <c r="K12" t="n">
-        <v>20013.86</v>
-      </c>
-      <c r="L12" t="n">
-        <v>20007.12</v>
-      </c>
-      <c r="M12" t="n">
-        <v>20009.25</v>
+        <v>19123.92</v>
       </c>
     </row>
     <row r="13">
@@ -975,40 +747,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>146514.67</v>
+        <v>187231.71</v>
       </c>
       <c r="C13" t="n">
-        <v>233548.68</v>
+        <v>187368.9</v>
       </c>
       <c r="D13" t="n">
-        <v>249581.55</v>
+        <v>168817.97</v>
       </c>
       <c r="E13" t="n">
-        <v>249647.53</v>
+        <v>199223.39</v>
       </c>
       <c r="F13" t="n">
-        <v>249547.88</v>
+        <v>226698.26</v>
       </c>
       <c r="G13" t="n">
-        <v>249324.46</v>
-      </c>
-      <c r="H13" t="n">
-        <v>249598.68</v>
-      </c>
-      <c r="I13" t="n">
-        <v>249447.38</v>
-      </c>
-      <c r="J13" t="n">
-        <v>249585.11</v>
-      </c>
-      <c r="K13" t="n">
-        <v>249279.03</v>
-      </c>
-      <c r="L13" t="n">
-        <v>235710.03</v>
-      </c>
-      <c r="M13" t="n">
-        <v>187231.71</v>
+        <v>233972.54</v>
       </c>
     </row>
     <row r="14">
@@ -1018,40 +772,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>187839.74</v>
+        <v>187830.66</v>
       </c>
       <c r="C14" t="n">
-        <v>187844.01</v>
+        <v>187840.9</v>
       </c>
       <c r="D14" t="n">
-        <v>187957.48</v>
+        <v>187358.28</v>
       </c>
       <c r="E14" t="n">
-        <v>187915.67</v>
+        <v>187907.41</v>
       </c>
       <c r="F14" t="n">
-        <v>187841.06</v>
+        <v>187849.11</v>
       </c>
       <c r="G14" t="n">
-        <v>187860.33</v>
-      </c>
-      <c r="H14" t="n">
-        <v>187854.45</v>
-      </c>
-      <c r="I14" t="n">
-        <v>187776.1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>187931.61</v>
-      </c>
-      <c r="K14" t="n">
-        <v>187777.77</v>
-      </c>
-      <c r="L14" t="n">
-        <v>187933.29</v>
-      </c>
-      <c r="M14" t="n">
-        <v>187830.66</v>
+        <v>187901.96</v>
       </c>
     </row>
     <row r="15">
@@ -1061,40 +797,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>731281.3</v>
+        <v>689854.33</v>
       </c>
       <c r="C15" t="n">
-        <v>729452.8199999999</v>
+        <v>685028.29</v>
       </c>
       <c r="D15" t="n">
-        <v>728300.92</v>
+        <v>677144.14</v>
       </c>
       <c r="E15" t="n">
-        <v>725938.38</v>
+        <v>674013.08</v>
       </c>
       <c r="F15" t="n">
-        <v>725563.4399999999</v>
+        <v>670246.17</v>
       </c>
       <c r="G15" t="n">
-        <v>726151.83</v>
-      </c>
-      <c r="H15" t="n">
-        <v>722991.84</v>
-      </c>
-      <c r="I15" t="n">
-        <v>712931.05</v>
-      </c>
-      <c r="J15" t="n">
-        <v>708925.72</v>
-      </c>
-      <c r="K15" t="n">
-        <v>702841.89</v>
-      </c>
-      <c r="L15" t="n">
-        <v>700336.7</v>
-      </c>
-      <c r="M15" t="n">
-        <v>689854.33</v>
+        <v>666911.03</v>
       </c>
     </row>
     <row r="16">
@@ -1103,37 +821,23 @@
           <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>275457.59</v>
+      </c>
+      <c r="C16" t="n">
+        <v>276023.84</v>
+      </c>
       <c r="D16" t="n">
-        <v>268603.3</v>
+        <v>275441.9</v>
       </c>
       <c r="E16" t="n">
-        <v>273974.04</v>
+        <v>291315.43</v>
       </c>
       <c r="F16" t="n">
-        <v>273821.92</v>
+        <v>290490.95</v>
       </c>
       <c r="G16" t="n">
-        <v>292560.64</v>
-      </c>
-      <c r="H16" t="n">
-        <v>292659.37</v>
-      </c>
-      <c r="I16" t="n">
-        <v>292512.81</v>
-      </c>
-      <c r="J16" t="n">
-        <v>276136.96</v>
-      </c>
-      <c r="K16" t="n">
-        <v>276084.16</v>
-      </c>
-      <c r="L16" t="n">
-        <v>276044.3</v>
-      </c>
-      <c r="M16" t="n">
-        <v>275457.59</v>
+        <v>260745.92</v>
       </c>
     </row>
     <row r="17">
@@ -1143,38 +847,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>10230.37</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
+        <v>9929.1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>10230.13</v>
+      </c>
       <c r="D17" t="n">
-        <v>10198.72</v>
+        <v>9797.309999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>10094.93</v>
+        <v>9821.610000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>9992.700000000001</v>
+        <v>10051.74</v>
       </c>
       <c r="G17" t="n">
-        <v>10001.41</v>
-      </c>
-      <c r="H17" t="n">
-        <v>9940.440000000001</v>
-      </c>
-      <c r="I17" t="n">
-        <v>10018.79</v>
-      </c>
-      <c r="J17" t="n">
-        <v>9871.870000000001</v>
-      </c>
-      <c r="K17" t="n">
-        <v>9791.950000000001</v>
-      </c>
-      <c r="L17" t="n">
-        <v>10121.12</v>
-      </c>
-      <c r="M17" t="n">
-        <v>9929.1</v>
+        <v>40369.83</v>
       </c>
     </row>
     <row r="18">
@@ -1184,38 +872,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>42544.86</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
+        <v>42488.67</v>
+      </c>
+      <c r="C18" t="n">
+        <v>42441.23</v>
+      </c>
       <c r="D18" t="n">
-        <v>42453.02</v>
+        <v>42355.05</v>
       </c>
       <c r="E18" t="n">
-        <v>42474.68</v>
+        <v>42405.08</v>
       </c>
       <c r="F18" t="n">
-        <v>42498.57</v>
+        <v>42534.2</v>
       </c>
       <c r="G18" t="n">
-        <v>42411.72</v>
-      </c>
-      <c r="H18" t="n">
-        <v>42443.25</v>
-      </c>
-      <c r="I18" t="n">
-        <v>42528.97</v>
-      </c>
-      <c r="J18" t="n">
-        <v>42428.78</v>
-      </c>
-      <c r="K18" t="n">
-        <v>42406.12</v>
-      </c>
-      <c r="L18" t="n">
-        <v>42533.92</v>
-      </c>
-      <c r="M18" t="n">
-        <v>42488.67</v>
+        <v>42484.9</v>
       </c>
     </row>
     <row r="19">
@@ -1225,38 +897,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>277593.58</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
+        <v>262880.39</v>
+      </c>
+      <c r="C19" t="n">
+        <v>262578.31</v>
+      </c>
       <c r="D19" t="n">
-        <v>272693.31</v>
+        <v>261580.19</v>
       </c>
       <c r="E19" t="n">
-        <v>267434.39</v>
+        <v>262747.81</v>
       </c>
       <c r="F19" t="n">
-        <v>262468.55</v>
+        <v>262674.03</v>
       </c>
       <c r="G19" t="n">
-        <v>262605.11</v>
-      </c>
-      <c r="H19" t="n">
-        <v>262504.47</v>
-      </c>
-      <c r="I19" t="n">
-        <v>262471.08</v>
-      </c>
-      <c r="J19" t="n">
-        <v>262214.45</v>
-      </c>
-      <c r="K19" t="n">
-        <v>262438.83</v>
-      </c>
-      <c r="L19" t="n">
-        <v>262337.95</v>
-      </c>
-      <c r="M19" t="n">
-        <v>262880.39</v>
+        <v>233071.96</v>
       </c>
     </row>
     <row r="20">
@@ -1266,38 +922,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>25359.32</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
+        <v>24999.59</v>
+      </c>
+      <c r="C20" t="n">
+        <v>24641.55</v>
+      </c>
       <c r="D20" t="n">
-        <v>24954.68</v>
+        <v>24991.41</v>
       </c>
       <c r="E20" t="n">
-        <v>24559.13</v>
+        <v>24895.02</v>
       </c>
       <c r="F20" t="n">
-        <v>24671.48</v>
+        <v>25100.13</v>
       </c>
       <c r="G20" t="n">
-        <v>24715.97</v>
-      </c>
-      <c r="H20" t="n">
-        <v>25232.57</v>
-      </c>
-      <c r="I20" t="n">
-        <v>25374.64</v>
-      </c>
-      <c r="J20" t="n">
-        <v>24607.69</v>
-      </c>
-      <c r="K20" t="n">
-        <v>25170.31</v>
-      </c>
-      <c r="L20" t="n">
-        <v>24583.31</v>
-      </c>
-      <c r="M20" t="n">
-        <v>24999.59</v>
+        <v>25107.4</v>
       </c>
     </row>
     <row r="21">
@@ -1307,38 +947,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>184135.65</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
+        <v>181670.27</v>
+      </c>
+      <c r="C21" t="n">
+        <v>180927.59</v>
+      </c>
       <c r="D21" t="n">
-        <v>172373.97</v>
+        <v>178187.04</v>
       </c>
       <c r="E21" t="n">
-        <v>203121.54</v>
+        <v>174938.23</v>
       </c>
       <c r="F21" t="n">
-        <v>203763.74</v>
+        <v>182106.69</v>
       </c>
       <c r="G21" t="n">
-        <v>205312.14</v>
-      </c>
-      <c r="H21" t="n">
-        <v>205315.59</v>
-      </c>
-      <c r="I21" t="n">
-        <v>203000.45</v>
-      </c>
-      <c r="J21" t="n">
-        <v>203177.37</v>
-      </c>
-      <c r="K21" t="n">
-        <v>203068.91</v>
-      </c>
-      <c r="L21" t="n">
-        <v>185622.56</v>
-      </c>
-      <c r="M21" t="n">
-        <v>181670.27</v>
+        <v>191744.64</v>
       </c>
     </row>
     <row r="22">
@@ -1348,40 +972,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>219846.69</v>
+        <v>256446.46</v>
       </c>
       <c r="C22" t="n">
-        <v>230285.08</v>
+        <v>248753.61</v>
       </c>
       <c r="D22" t="n">
-        <v>231924.27</v>
+        <v>247856.38</v>
       </c>
       <c r="E22" t="n">
-        <v>235363.3</v>
+        <v>308919.93</v>
       </c>
       <c r="F22" t="n">
-        <v>236381.23</v>
+        <v>312521.15</v>
       </c>
       <c r="G22" t="n">
-        <v>246659.24</v>
-      </c>
-      <c r="H22" t="n">
-        <v>246848.7</v>
-      </c>
-      <c r="I22" t="n">
-        <v>246786.54</v>
-      </c>
-      <c r="J22" t="n">
-        <v>266989.25</v>
-      </c>
-      <c r="K22" t="n">
-        <v>266530.6</v>
-      </c>
-      <c r="L22" t="n">
-        <v>256925.9</v>
-      </c>
-      <c r="M22" t="n">
-        <v>256446.46</v>
+        <v>291943.44</v>
       </c>
     </row>
     <row r="23">
@@ -1391,40 +997,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>54382.44</v>
+        <v>54331.66</v>
       </c>
       <c r="C23" t="n">
-        <v>54419.07</v>
+        <v>54308.52</v>
       </c>
       <c r="D23" t="n">
-        <v>54226.45</v>
+        <v>54194.87</v>
       </c>
       <c r="E23" t="n">
-        <v>54261.86</v>
+        <v>54354.17</v>
       </c>
       <c r="F23" t="n">
-        <v>54316.25</v>
+        <v>54314.4</v>
       </c>
       <c r="G23" t="n">
-        <v>54363.02</v>
-      </c>
-      <c r="H23" t="n">
-        <v>54273.79</v>
-      </c>
-      <c r="I23" t="n">
-        <v>54236.53</v>
-      </c>
-      <c r="J23" t="n">
-        <v>54352.14</v>
-      </c>
-      <c r="K23" t="n">
-        <v>54258.32</v>
-      </c>
-      <c r="L23" t="n">
-        <v>54238.21</v>
-      </c>
-      <c r="M23" t="n">
-        <v>54331.66</v>
+        <v>54365.21</v>
       </c>
     </row>
     <row r="24">
@@ -1434,40 +1022,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>23186.18</v>
+        <v>23198.2</v>
       </c>
       <c r="C24" t="n">
-        <v>23208.67</v>
+        <v>23201.73</v>
       </c>
       <c r="D24" t="n">
-        <v>23198.2</v>
+        <v>23084.91</v>
       </c>
       <c r="E24" t="n">
-        <v>23184.78</v>
+        <v>23171.63</v>
       </c>
       <c r="F24" t="n">
-        <v>23175.93</v>
+        <v>23181.23</v>
       </c>
       <c r="G24" t="n">
-        <v>23152.54</v>
-      </c>
-      <c r="H24" t="n">
-        <v>23219.38</v>
-      </c>
-      <c r="I24" t="n">
-        <v>23180.24</v>
-      </c>
-      <c r="J24" t="n">
-        <v>23209.7</v>
-      </c>
-      <c r="K24" t="n">
-        <v>23152.03</v>
-      </c>
-      <c r="L24" t="n">
-        <v>23163.49</v>
-      </c>
-      <c r="M24" t="n">
-        <v>23198.2</v>
+        <v>23192.95</v>
       </c>
     </row>
     <row r="25">
@@ -1477,40 +1047,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5375.02</v>
+        <v>5375.99</v>
       </c>
       <c r="C25" t="n">
-        <v>5374.26</v>
+        <v>5370.42</v>
       </c>
       <c r="D25" t="n">
-        <v>5360.83</v>
+        <v>5359.24</v>
       </c>
       <c r="E25" t="n">
-        <v>5360.13</v>
+        <v>5361.8</v>
       </c>
       <c r="F25" t="n">
-        <v>5378.22</v>
+        <v>5363.38</v>
       </c>
       <c r="G25" t="n">
-        <v>5358.03</v>
-      </c>
-      <c r="H25" t="n">
-        <v>5376.63</v>
-      </c>
-      <c r="I25" t="n">
-        <v>5365.62</v>
-      </c>
-      <c r="J25" t="n">
-        <v>5377.83</v>
-      </c>
-      <c r="K25" t="n">
-        <v>5366.6</v>
-      </c>
-      <c r="L25" t="n">
-        <v>5380.57</v>
-      </c>
-      <c r="M25" t="n">
-        <v>5375.99</v>
+        <v>5373.86</v>
       </c>
     </row>
     <row r="26">
@@ -1520,40 +1072,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>95060.08</v>
+        <v>58100.9</v>
       </c>
       <c r="C26" t="n">
-        <v>95107.03999999999</v>
+        <v>58070.54</v>
       </c>
       <c r="D26" t="n">
-        <v>95166.96000000001</v>
+        <v>57897.87</v>
       </c>
       <c r="E26" t="n">
-        <v>95027.42</v>
+        <v>58111.96</v>
       </c>
       <c r="F26" t="n">
-        <v>85025.46000000001</v>
+        <v>58112.94</v>
       </c>
       <c r="G26" t="n">
-        <v>79948.85000000001</v>
-      </c>
-      <c r="H26" t="n">
-        <v>75157.03</v>
-      </c>
-      <c r="I26" t="n">
-        <v>65180.74</v>
-      </c>
-      <c r="J26" t="n">
-        <v>65142.51</v>
-      </c>
-      <c r="K26" t="n">
-        <v>62978.75</v>
-      </c>
-      <c r="L26" t="n">
-        <v>58159.18</v>
-      </c>
-      <c r="M26" t="n">
-        <v>58100.9</v>
+        <v>53136.51</v>
       </c>
     </row>
     <row r="27">
@@ -1563,40 +1097,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>102176.73</v>
+        <v>101935.18</v>
       </c>
       <c r="C27" t="n">
-        <v>112199.76</v>
+        <v>102091.15</v>
       </c>
       <c r="D27" t="n">
-        <v>91858.87</v>
+        <v>101788.7</v>
       </c>
       <c r="E27" t="n">
-        <v>91987.56</v>
+        <v>101954.4</v>
       </c>
       <c r="F27" t="n">
-        <v>91895.23</v>
+        <v>102055.57</v>
       </c>
       <c r="G27" t="n">
-        <v>92056.25999999999</v>
-      </c>
-      <c r="H27" t="n">
-        <v>106978</v>
-      </c>
-      <c r="I27" t="n">
-        <v>107111.79</v>
-      </c>
-      <c r="J27" t="n">
-        <v>107022.83</v>
-      </c>
-      <c r="K27" t="n">
-        <v>106931.17</v>
-      </c>
-      <c r="L27" t="n">
-        <v>102082.11</v>
-      </c>
-      <c r="M27" t="n">
-        <v>101935.18</v>
+        <v>106780.77</v>
       </c>
     </row>
     <row r="28">
@@ -1606,40 +1122,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>30650.72</v>
+        <v>44484.74</v>
       </c>
       <c r="C28" t="n">
-        <v>32094.72</v>
+        <v>44444.54</v>
       </c>
       <c r="D28" t="n">
-        <v>41202.07</v>
+        <v>43073.39</v>
       </c>
       <c r="E28" t="n">
-        <v>43171.36</v>
+        <v>42769.44</v>
       </c>
       <c r="F28" t="n">
-        <v>42770.57</v>
+        <v>43500.14</v>
       </c>
       <c r="G28" t="n">
-        <v>42691.22</v>
-      </c>
-      <c r="H28" t="n">
-        <v>50844.21</v>
-      </c>
-      <c r="I28" t="n">
-        <v>50819.16</v>
-      </c>
-      <c r="J28" t="n">
-        <v>50822.04</v>
-      </c>
-      <c r="K28" t="n">
-        <v>50800.44</v>
-      </c>
-      <c r="L28" t="n">
-        <v>50457.23</v>
-      </c>
-      <c r="M28" t="n">
-        <v>44484.74</v>
+        <v>46130.76</v>
       </c>
     </row>
     <row r="29">
@@ -1649,40 +1147,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3618.11</v>
+        <v>4125.76</v>
       </c>
       <c r="C29" t="n">
-        <v>3617.28</v>
+        <v>3860.95</v>
       </c>
       <c r="D29" t="n">
-        <v>4121.17</v>
+        <v>3860.26</v>
       </c>
       <c r="E29" t="n">
-        <v>4129.98</v>
+        <v>3858.62</v>
       </c>
       <c r="F29" t="n">
-        <v>4116.1</v>
+        <v>3862.07</v>
       </c>
       <c r="G29" t="n">
-        <v>4122.01</v>
-      </c>
-      <c r="H29" t="n">
-        <v>4126.83</v>
-      </c>
-      <c r="I29" t="n">
-        <v>4126.4</v>
-      </c>
-      <c r="J29" t="n">
-        <v>4127.96</v>
-      </c>
-      <c r="K29" t="n">
-        <v>4131.2</v>
-      </c>
-      <c r="L29" t="n">
-        <v>4122.88</v>
-      </c>
-      <c r="M29" t="n">
-        <v>4125.76</v>
+        <v>3862.95</v>
       </c>
     </row>
     <row r="30">
@@ -1692,40 +1172,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>37116.79</v>
+        <v>40156.69</v>
       </c>
       <c r="C30" t="n">
-        <v>41361.28</v>
+        <v>40044.17</v>
       </c>
       <c r="D30" t="n">
-        <v>41360.04</v>
+        <v>39959.2</v>
       </c>
       <c r="E30" t="n">
-        <v>46755.1</v>
+        <v>40077.77</v>
       </c>
       <c r="F30" t="n">
-        <v>44936.9</v>
+        <v>41606.4</v>
       </c>
       <c r="G30" t="n">
-        <v>44997.33</v>
-      </c>
-      <c r="H30" t="n">
-        <v>45008.59</v>
-      </c>
-      <c r="I30" t="n">
-        <v>44948.81</v>
-      </c>
-      <c r="J30" t="n">
-        <v>45035.13</v>
-      </c>
-      <c r="K30" t="n">
-        <v>41998.55</v>
-      </c>
-      <c r="L30" t="n">
-        <v>40286.43</v>
-      </c>
-      <c r="M30" t="n">
-        <v>40156.69</v>
+        <v>44134.59</v>
       </c>
     </row>
     <row r="31">
@@ -1735,40 +1197,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>16184.43</v>
+        <v>16254.08</v>
       </c>
       <c r="C31" t="n">
-        <v>16218.33</v>
+        <v>16229.21</v>
       </c>
       <c r="D31" t="n">
-        <v>16188.9</v>
+        <v>16222.68</v>
       </c>
       <c r="E31" t="n">
-        <v>16187.36</v>
+        <v>29188.48</v>
       </c>
       <c r="F31" t="n">
-        <v>16190.75</v>
+        <v>29252.13</v>
       </c>
       <c r="G31" t="n">
-        <v>16241.51</v>
-      </c>
-      <c r="H31" t="n">
-        <v>16177.78</v>
-      </c>
-      <c r="I31" t="n">
-        <v>16218.46</v>
-      </c>
-      <c r="J31" t="n">
-        <v>16242.61</v>
-      </c>
-      <c r="K31" t="n">
-        <v>16173.44</v>
-      </c>
-      <c r="L31" t="n">
-        <v>16240.68</v>
-      </c>
-      <c r="M31" t="n">
-        <v>16254.08</v>
+        <v>29225.31</v>
       </c>
     </row>
     <row r="32">
@@ -1778,40 +1222,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>26248.2</v>
+        <v>22094.79</v>
       </c>
       <c r="C32" t="n">
-        <v>26182.15</v>
+        <v>25768.64</v>
       </c>
       <c r="D32" t="n">
-        <v>15864.27</v>
+        <v>25787.04</v>
       </c>
       <c r="E32" t="n">
-        <v>18706.77</v>
+        <v>25783.31</v>
       </c>
       <c r="F32" t="n">
-        <v>22087.75</v>
+        <v>25794.05</v>
       </c>
       <c r="G32" t="n">
-        <v>22123.74</v>
-      </c>
-      <c r="H32" t="n">
-        <v>22115.92</v>
-      </c>
-      <c r="I32" t="n">
-        <v>22087.19</v>
-      </c>
-      <c r="J32" t="n">
-        <v>22103.25</v>
-      </c>
-      <c r="K32" t="n">
-        <v>22068.23</v>
-      </c>
-      <c r="L32" t="n">
-        <v>22100.36</v>
-      </c>
-      <c r="M32" t="n">
-        <v>22094.79</v>
+        <v>25760.87</v>
       </c>
     </row>
     <row r="33">
@@ -1821,38 +1247,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>69990.33</v>
-      </c>
-      <c r="C33" t="inlineStr"/>
+        <v>80025.5</v>
+      </c>
+      <c r="C33" t="n">
+        <v>80007.81</v>
+      </c>
       <c r="D33" t="n">
-        <v>79868.35000000001</v>
+        <v>79670.78999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>79990.63</v>
+        <v>79906.95</v>
       </c>
       <c r="F33" t="n">
-        <v>80045.2</v>
+        <v>79970.25</v>
       </c>
       <c r="G33" t="n">
-        <v>85027.13</v>
-      </c>
-      <c r="H33" t="n">
-        <v>85000.55</v>
-      </c>
-      <c r="I33" t="n">
-        <v>84941.17</v>
-      </c>
-      <c r="J33" t="n">
-        <v>85047.63</v>
-      </c>
-      <c r="K33" t="n">
-        <v>84955.78999999999</v>
-      </c>
-      <c r="L33" t="n">
-        <v>84886.72</v>
-      </c>
-      <c r="M33" t="n">
-        <v>80025.5</v>
+        <v>79906.16</v>
       </c>
     </row>
     <row r="34">
@@ -1862,40 +1272,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>98147.53999999999</v>
+        <v>98304.58</v>
       </c>
       <c r="C34" t="n">
-        <v>98071.52</v>
+        <v>97922.42</v>
       </c>
       <c r="D34" t="n">
-        <v>98042.71000000001</v>
+        <v>98059.34</v>
       </c>
       <c r="E34" t="n">
-        <v>98330.16</v>
+        <v>173528.59</v>
       </c>
       <c r="F34" t="n">
-        <v>98138.17999999999</v>
+        <v>173507.37</v>
       </c>
       <c r="G34" t="n">
-        <v>98015.89</v>
-      </c>
-      <c r="H34" t="n">
-        <v>97888.31</v>
-      </c>
-      <c r="I34" t="n">
-        <v>98102.06</v>
-      </c>
-      <c r="J34" t="n">
-        <v>97994.44</v>
-      </c>
-      <c r="K34" t="n">
-        <v>98082.98</v>
-      </c>
-      <c r="L34" t="n">
-        <v>98037.31</v>
-      </c>
-      <c r="M34" t="n">
-        <v>98304.58</v>
+        <v>173599.91</v>
       </c>
     </row>
     <row r="35">
@@ -1905,40 +1297,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>58260.09</v>
+        <v>65814.77</v>
       </c>
       <c r="C35" t="n">
-        <v>58343.03</v>
+        <v>65886.63</v>
       </c>
       <c r="D35" t="n">
-        <v>63330.51</v>
+        <v>65560.39</v>
       </c>
       <c r="E35" t="n">
-        <v>65338.67</v>
+        <v>65893.27</v>
       </c>
       <c r="F35" t="n">
-        <v>81271.64</v>
+        <v>71895.44</v>
       </c>
       <c r="G35" t="n">
-        <v>71384.10000000001</v>
-      </c>
-      <c r="H35" t="n">
-        <v>85286.48</v>
-      </c>
-      <c r="I35" t="n">
-        <v>70244.48</v>
-      </c>
-      <c r="J35" t="n">
-        <v>65731.89</v>
-      </c>
-      <c r="K35" t="n">
-        <v>65799.03999999999</v>
-      </c>
-      <c r="L35" t="n">
-        <v>65858.35000000001</v>
-      </c>
-      <c r="M35" t="n">
-        <v>65814.77</v>
+        <v>74397.96000000001</v>
       </c>
     </row>
     <row r="36">
@@ -1948,40 +1322,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>84985.53999999999</v>
+        <v>68646.23</v>
       </c>
       <c r="C36" t="n">
-        <v>84911.81</v>
+        <v>81655.73</v>
       </c>
       <c r="D36" t="n">
-        <v>84917.67999999999</v>
+        <v>81321.06</v>
       </c>
       <c r="E36" t="n">
-        <v>84821.64</v>
+        <v>81725.46000000001</v>
       </c>
       <c r="F36" t="n">
-        <v>84724.11</v>
+        <v>81463.74000000001</v>
       </c>
       <c r="G36" t="n">
-        <v>68426.75999999999</v>
-      </c>
-      <c r="H36" t="n">
-        <v>68726.00999999999</v>
-      </c>
-      <c r="I36" t="n">
-        <v>68650.21000000001</v>
-      </c>
-      <c r="J36" t="n">
-        <v>68687.31</v>
-      </c>
-      <c r="K36" t="n">
-        <v>68629.10000000001</v>
-      </c>
-      <c r="L36" t="n">
-        <v>68660.81</v>
-      </c>
-      <c r="M36" t="n">
-        <v>68646.23</v>
+        <v>81489.32000000001</v>
       </c>
     </row>
     <row r="37">
@@ -1991,280 +1347,147 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>60333.63</v>
+        <v>59214.01</v>
       </c>
       <c r="C37" t="n">
-        <v>60354.15</v>
+        <v>56052.81</v>
       </c>
       <c r="D37" t="n">
-        <v>56713.04</v>
+        <v>55975.35</v>
       </c>
       <c r="E37" t="n">
-        <v>55729.21</v>
+        <v>56772.95</v>
       </c>
       <c r="F37" t="n">
-        <v>60122.7</v>
+        <v>55945.98</v>
       </c>
       <c r="G37" t="n">
-        <v>60943.16</v>
-      </c>
-      <c r="H37" t="n">
-        <v>61130.69</v>
-      </c>
-      <c r="I37" t="n">
-        <v>61108.72</v>
-      </c>
-      <c r="J37" t="n">
-        <v>61069.43</v>
-      </c>
-      <c r="K37" t="n">
-        <v>61139.71</v>
-      </c>
-      <c r="L37" t="n">
-        <v>61114.75</v>
-      </c>
-      <c r="M37" t="n">
-        <v>59214.01</v>
+        <v>61046.21</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1120946.22</v>
+        <v>1334142.98</v>
       </c>
       <c r="C38" t="n">
-        <v>1119813.64</v>
+        <v>1630409.2</v>
       </c>
       <c r="D38" t="n">
-        <v>1022894.4</v>
-      </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
+        <v>1625877.16</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1740753.54</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1799130.26</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1798449.28</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1181522.05</v>
+        <v>469987.15</v>
       </c>
       <c r="C39" t="n">
-        <v>1182138.57</v>
+        <v>470036.23</v>
       </c>
       <c r="D39" t="n">
-        <v>1182423.26</v>
+        <v>469079.68</v>
       </c>
       <c r="E39" t="n">
-        <v>1182350.01</v>
+        <v>470037.67</v>
       </c>
       <c r="F39" t="n">
-        <v>1182094.09</v>
+        <v>469963.18</v>
       </c>
       <c r="G39" t="n">
-        <v>1182805.94</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1182778.25</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1216011.05</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1217285.82</v>
-      </c>
-      <c r="K39" t="n">
-        <v>1217395.6</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1217031.67</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1334142.98</v>
+        <v>470438.41</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>469846.65</v>
+        <v>37003.6</v>
       </c>
       <c r="C40" t="n">
-        <v>470155.03</v>
+        <v>37084.48</v>
       </c>
       <c r="D40" t="n">
-        <v>469751.05</v>
+        <v>36946.37</v>
       </c>
       <c r="E40" t="n">
-        <v>470397.56</v>
+        <v>37066.15</v>
       </c>
       <c r="F40" t="n">
-        <v>469835.79</v>
+        <v>37094.46</v>
       </c>
       <c r="G40" t="n">
-        <v>470330.04</v>
-      </c>
-      <c r="H40" t="n">
-        <v>469891.29</v>
-      </c>
-      <c r="I40" t="n">
-        <v>469619.69</v>
-      </c>
-      <c r="J40" t="n">
-        <v>470380.13</v>
-      </c>
-      <c r="K40" t="n">
-        <v>469922.78</v>
-      </c>
-      <c r="L40" t="n">
-        <v>469799.12</v>
-      </c>
-      <c r="M40" t="n">
-        <v>469987.15</v>
+        <v>37071.23</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>37010.05</v>
+        <v>175379.71</v>
       </c>
       <c r="C41" t="n">
-        <v>37052.93</v>
+        <v>182970</v>
       </c>
       <c r="D41" t="n">
-        <v>37023.59</v>
+        <v>181720.53</v>
       </c>
       <c r="E41" t="n">
-        <v>37034.58</v>
+        <v>189772.19</v>
       </c>
       <c r="F41" t="n">
-        <v>37008.79</v>
+        <v>193078.12</v>
       </c>
       <c r="G41" t="n">
-        <v>37074.61</v>
-      </c>
-      <c r="H41" t="n">
-        <v>37101.31</v>
-      </c>
-      <c r="I41" t="n">
-        <v>37058.65</v>
-      </c>
-      <c r="J41" t="n">
-        <v>37102.09</v>
-      </c>
-      <c r="K41" t="n">
-        <v>37006.32</v>
-      </c>
-      <c r="L41" t="n">
-        <v>37017.81</v>
-      </c>
-      <c r="M41" t="n">
-        <v>37003.6</v>
+        <v>192681.31</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>191166.19</v>
+        <v>6839808.79</v>
       </c>
       <c r="C42" t="n">
-        <v>212230.28</v>
+        <v>7135829.82</v>
       </c>
       <c r="D42" t="n">
-        <v>195009.18</v>
+        <v>7087100.64</v>
       </c>
       <c r="E42" t="n">
-        <v>175711.96</v>
+        <v>7401115.51</v>
       </c>
       <c r="F42" t="n">
-        <v>176139.1</v>
+        <v>7530046.66</v>
       </c>
       <c r="G42" t="n">
-        <v>176444.07</v>
-      </c>
-      <c r="H42" t="n">
-        <v>177028.84</v>
-      </c>
-      <c r="I42" t="n">
-        <v>175978.87</v>
-      </c>
-      <c r="J42" t="n">
-        <v>175696.59</v>
-      </c>
-      <c r="K42" t="n">
-        <v>175148.91</v>
-      </c>
-      <c r="L42" t="n">
-        <v>173729.3</v>
-      </c>
-      <c r="M42" t="n">
-        <v>175379.71</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>7455481.48</v>
-      </c>
-      <c r="C43" t="n">
-        <v>7003599.23</v>
-      </c>
-      <c r="D43" t="n">
-        <v>7800367.38</v>
-      </c>
-      <c r="E43" t="n">
-        <v>6852766.56</v>
-      </c>
-      <c r="F43" t="n">
-        <v>6869425.04</v>
-      </c>
-      <c r="G43" t="n">
-        <v>6881318.87</v>
-      </c>
-      <c r="H43" t="n">
-        <v>6904124.71</v>
-      </c>
-      <c r="I43" t="n">
-        <v>6863175.75</v>
-      </c>
-      <c r="J43" t="n">
-        <v>6852166.92</v>
-      </c>
-      <c r="K43" t="n">
-        <v>6830807.33</v>
-      </c>
-      <c r="L43" t="n">
-        <v>6775442.64</v>
-      </c>
-      <c r="M43" t="n">
-        <v>6839808.79</v>
+        <v>7514570.9</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BBAR.xlsx
+++ b/backend/src/excel_handler/files/BBAR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>23-03-2023</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31-03-2023</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>05-04-2023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>14-04-2023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>21-04-2023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -472,22 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>94509.85000000001</v>
+      </c>
+      <c r="C2" t="n">
+        <v>94534.46000000001</v>
+      </c>
+      <c r="D2" t="n">
+        <v>120949.27</v>
+      </c>
+      <c r="E2" t="n">
+        <v>129663.93</v>
+      </c>
+      <c r="F2" t="n">
+        <v>138708.8</v>
+      </c>
+      <c r="G2" t="n">
+        <v>138595.66</v>
+      </c>
+      <c r="H2" t="n">
+        <v>147325.09</v>
+      </c>
+      <c r="I2" t="n">
+        <v>111476.18</v>
+      </c>
+      <c r="J2" t="n">
+        <v>103534.56</v>
+      </c>
+      <c r="K2" t="n">
+        <v>95373.24000000001</v>
+      </c>
+      <c r="L2" t="n">
+        <v>95481.87</v>
+      </c>
+      <c r="M2" t="n">
         <v>95306.99000000001</v>
-      </c>
-      <c r="C2" t="n">
-        <v>95500.3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>95148.88</v>
-      </c>
-      <c r="E2" t="n">
-        <v>95493.73</v>
-      </c>
-      <c r="F2" t="n">
-        <v>95477.22</v>
-      </c>
-      <c r="G2" t="n">
-        <v>95295.84</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>238818.2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>239270.73</v>
+      </c>
+      <c r="D3" t="n">
+        <v>238977.22</v>
+      </c>
+      <c r="E3" t="n">
+        <v>253303.32</v>
+      </c>
+      <c r="F3" t="n">
+        <v>253477.7</v>
+      </c>
+      <c r="G3" t="n">
+        <v>253164.49</v>
+      </c>
+      <c r="H3" t="n">
+        <v>237593.18</v>
+      </c>
+      <c r="I3" t="n">
+        <v>237428.43</v>
+      </c>
+      <c r="J3" t="n">
+        <v>237561.09</v>
+      </c>
+      <c r="K3" t="n">
+        <v>245926.4</v>
+      </c>
+      <c r="L3" t="n">
+        <v>246503.83</v>
+      </c>
+      <c r="M3" t="n">
         <v>267713.53</v>
-      </c>
-      <c r="C3" t="n">
-        <v>258287.19</v>
-      </c>
-      <c r="D3" t="n">
-        <v>257827.77</v>
-      </c>
-      <c r="E3" t="n">
-        <v>258396.43</v>
-      </c>
-      <c r="F3" t="n">
-        <v>258606.36</v>
-      </c>
-      <c r="G3" t="n">
-        <v>258645.83</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>29313.29</v>
+      </c>
+      <c r="C4" t="n">
+        <v>31308.64</v>
+      </c>
+      <c r="D4" t="n">
+        <v>31301.64</v>
+      </c>
+      <c r="E4" t="n">
+        <v>31258</v>
+      </c>
+      <c r="F4" t="n">
+        <v>31348.14</v>
+      </c>
+      <c r="G4" t="n">
+        <v>31219.13</v>
+      </c>
+      <c r="H4" t="n">
+        <v>31259.28</v>
+      </c>
+      <c r="I4" t="n">
+        <v>31293.93</v>
+      </c>
+      <c r="J4" t="n">
+        <v>31377.84</v>
+      </c>
+      <c r="K4" t="n">
+        <v>31276.89</v>
+      </c>
+      <c r="L4" t="n">
+        <v>31287.89</v>
+      </c>
+      <c r="M4" t="n">
         <v>31337.46</v>
-      </c>
-      <c r="C4" t="n">
-        <v>31345.9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>31049.04</v>
-      </c>
-      <c r="E4" t="n">
-        <v>31340.98</v>
-      </c>
-      <c r="F4" t="n">
-        <v>31263.97</v>
-      </c>
-      <c r="G4" t="n">
-        <v>31279.04</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +631,40 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>17364.12</v>
+      </c>
+      <c r="C5" t="n">
+        <v>17412.14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17463.84</v>
+      </c>
+      <c r="E5" t="n">
+        <v>26143.8</v>
+      </c>
+      <c r="F5" t="n">
+        <v>26024.24</v>
+      </c>
+      <c r="G5" t="n">
+        <v>26186.73</v>
+      </c>
+      <c r="H5" t="n">
+        <v>26112.32</v>
+      </c>
+      <c r="I5" t="n">
+        <v>26132.01</v>
+      </c>
+      <c r="J5" t="n">
+        <v>26148.7</v>
+      </c>
+      <c r="K5" t="n">
+        <v>26077.08</v>
+      </c>
+      <c r="L5" t="n">
+        <v>26134.81</v>
+      </c>
+      <c r="M5" t="n">
         <v>26044.79</v>
-      </c>
-      <c r="C5" t="n">
-        <v>34207.29</v>
-      </c>
-      <c r="D5" t="n">
-        <v>34004.32</v>
-      </c>
-      <c r="E5" t="n">
-        <v>34202.5</v>
-      </c>
-      <c r="F5" t="n">
-        <v>59253.95</v>
-      </c>
-      <c r="G5" t="n">
-        <v>67349.66</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +674,40 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>79846.41</v>
+      </c>
+      <c r="C6" t="n">
+        <v>98190.67</v>
+      </c>
+      <c r="D6" t="n">
+        <v>98213.47</v>
+      </c>
+      <c r="E6" t="n">
+        <v>98233.36</v>
+      </c>
+      <c r="F6" t="n">
+        <v>98258.06</v>
+      </c>
+      <c r="G6" t="n">
+        <v>98259.50999999999</v>
+      </c>
+      <c r="H6" t="n">
+        <v>98096.97</v>
+      </c>
+      <c r="I6" t="n">
+        <v>98125.27</v>
+      </c>
+      <c r="J6" t="n">
+        <v>98226.82000000001</v>
+      </c>
+      <c r="K6" t="n">
+        <v>98385.07000000001</v>
+      </c>
+      <c r="L6" t="n">
+        <v>98192.17</v>
+      </c>
+      <c r="M6" t="n">
         <v>98139.36</v>
-      </c>
-      <c r="C6" t="n">
-        <v>98199.8</v>
-      </c>
-      <c r="D6" t="n">
-        <v>97918.86</v>
-      </c>
-      <c r="E6" t="n">
-        <v>98251.97</v>
-      </c>
-      <c r="F6" t="n">
-        <v>98340.22</v>
-      </c>
-      <c r="G6" t="n">
-        <v>98375.77</v>
       </c>
     </row>
     <row r="7">
@@ -597,22 +717,40 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>328410.27</v>
+      </c>
+      <c r="C7" t="n">
+        <v>328385.78</v>
+      </c>
+      <c r="D7" t="n">
+        <v>328978.28</v>
+      </c>
+      <c r="E7" t="n">
+        <v>328639.26</v>
+      </c>
+      <c r="F7" t="n">
+        <v>328450.62</v>
+      </c>
+      <c r="G7" t="n">
+        <v>328978.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>328667</v>
+      </c>
+      <c r="I7" t="n">
+        <v>328288.18</v>
+      </c>
+      <c r="J7" t="n">
+        <v>328356.47</v>
+      </c>
+      <c r="K7" t="n">
+        <v>328258.84</v>
+      </c>
+      <c r="L7" t="n">
+        <v>328495.53</v>
+      </c>
+      <c r="M7" t="n">
         <v>328317.34</v>
-      </c>
-      <c r="C7" t="n">
-        <v>328891.97</v>
-      </c>
-      <c r="D7" t="n">
-        <v>327633.73</v>
-      </c>
-      <c r="E7" t="n">
-        <v>328735.22</v>
-      </c>
-      <c r="F7" t="n">
-        <v>328861.63</v>
-      </c>
-      <c r="G7" t="n">
-        <v>328819.56</v>
       </c>
     </row>
     <row r="8">
@@ -622,22 +760,40 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>579063.9</v>
+      </c>
+      <c r="C8" t="n">
+        <v>609869.29</v>
+      </c>
+      <c r="D8" t="n">
+        <v>609991.74</v>
+      </c>
+      <c r="E8" t="n">
+        <v>610019.79</v>
+      </c>
+      <c r="F8" t="n">
+        <v>610096.85</v>
+      </c>
+      <c r="G8" t="n">
+        <v>609931.85</v>
+      </c>
+      <c r="H8" t="n">
+        <v>610023.09</v>
+      </c>
+      <c r="I8" t="n">
+        <v>609838.36</v>
+      </c>
+      <c r="J8" t="n">
+        <v>609747.87</v>
+      </c>
+      <c r="K8" t="n">
+        <v>610071.08</v>
+      </c>
+      <c r="L8" t="n">
+        <v>609740.17</v>
+      </c>
+      <c r="M8" t="n">
         <v>609769.3199999999</v>
-      </c>
-      <c r="C8" t="n">
-        <v>609752.05</v>
-      </c>
-      <c r="D8" t="n">
-        <v>608375.35</v>
-      </c>
-      <c r="E8" t="n">
-        <v>609906.8100000001</v>
-      </c>
-      <c r="F8" t="n">
-        <v>609897.89</v>
-      </c>
-      <c r="G8" t="n">
-        <v>610049.65</v>
       </c>
     </row>
     <row r="9">
@@ -647,22 +803,40 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>11574.97</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7285.59</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7287.83</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7294.14</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7261.99</v>
+      </c>
+      <c r="G9" t="n">
+        <v>12891.35</v>
+      </c>
+      <c r="H9" t="n">
+        <v>12887.05</v>
+      </c>
+      <c r="I9" t="n">
+        <v>12862.96</v>
+      </c>
+      <c r="J9" t="n">
+        <v>12867.03</v>
+      </c>
+      <c r="K9" t="n">
+        <v>12881.53</v>
+      </c>
+      <c r="L9" t="n">
+        <v>12853.47</v>
+      </c>
+      <c r="M9" t="n">
         <v>12893.38</v>
-      </c>
-      <c r="C9" t="n">
-        <v>12869.85</v>
-      </c>
-      <c r="D9" t="n">
-        <v>12831.99</v>
-      </c>
-      <c r="E9" t="n">
-        <v>12885.16</v>
-      </c>
-      <c r="F9" t="n">
-        <v>12863.38</v>
-      </c>
-      <c r="G9" t="n">
-        <v>12870.34</v>
       </c>
     </row>
     <row r="10">
@@ -672,22 +846,40 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>646692.49</v>
+      </c>
+      <c r="C10" t="n">
+        <v>646095.37</v>
+      </c>
+      <c r="D10" t="n">
+        <v>645145.4399999999</v>
+      </c>
+      <c r="E10" t="n">
+        <v>645392.1899999999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>646627.1800000001</v>
+      </c>
+      <c r="G10" t="n">
+        <v>645967.61</v>
+      </c>
+      <c r="H10" t="n">
+        <v>646210.8100000001</v>
+      </c>
+      <c r="I10" t="n">
+        <v>646379.33</v>
+      </c>
+      <c r="J10" t="n">
+        <v>646297.29</v>
+      </c>
+      <c r="K10" t="n">
+        <v>645239.6800000001</v>
+      </c>
+      <c r="L10" t="n">
+        <v>644836.04</v>
+      </c>
+      <c r="M10" t="n">
         <v>647168.17</v>
-      </c>
-      <c r="C10" t="n">
-        <v>647385.99</v>
-      </c>
-      <c r="D10" t="n">
-        <v>644864.8199999999</v>
-      </c>
-      <c r="E10" t="n">
-        <v>645176.34</v>
-      </c>
-      <c r="F10" t="n">
-        <v>648950.35</v>
-      </c>
-      <c r="G10" t="n">
-        <v>649019.87</v>
       </c>
     </row>
     <row r="11">
@@ -697,22 +889,40 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>9504.719999999999</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9488.530000000001</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9501.219999999999</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9515.66</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9474.629999999999</v>
+      </c>
+      <c r="G11" t="n">
+        <v>9467.25</v>
+      </c>
+      <c r="H11" t="n">
+        <v>9491.379999999999</v>
+      </c>
+      <c r="I11" t="n">
+        <v>9479.07</v>
+      </c>
+      <c r="J11" t="n">
+        <v>9458.91</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1124.04</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1122.98</v>
+      </c>
+      <c r="M11" t="n">
         <v>1123.62</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1124.89</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1121.12</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1124.46</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1122.81</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1125.54</v>
       </c>
     </row>
     <row r="12">
@@ -722,22 +932,40 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>19996.28</v>
+      </c>
+      <c r="C12" t="n">
+        <v>20004.2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>20003.86</v>
+      </c>
+      <c r="E12" t="n">
+        <v>20014.74</v>
+      </c>
+      <c r="F12" t="n">
+        <v>20012.6</v>
+      </c>
+      <c r="G12" t="n">
+        <v>19991.8</v>
+      </c>
+      <c r="H12" t="n">
+        <v>19988.13</v>
+      </c>
+      <c r="I12" t="n">
+        <v>20013.25</v>
+      </c>
+      <c r="J12" t="n">
+        <v>19986.79</v>
+      </c>
+      <c r="K12" t="n">
+        <v>20013.86</v>
+      </c>
+      <c r="L12" t="n">
+        <v>20007.12</v>
+      </c>
+      <c r="M12" t="n">
         <v>20009.25</v>
-      </c>
-      <c r="C12" t="n">
-        <v>19985.06</v>
-      </c>
-      <c r="D12" t="n">
-        <v>19076.79</v>
-      </c>
-      <c r="E12" t="n">
-        <v>19098.76</v>
-      </c>
-      <c r="F12" t="n">
-        <v>19123.46</v>
-      </c>
-      <c r="G12" t="n">
-        <v>19123.92</v>
       </c>
     </row>
     <row r="13">
@@ -747,22 +975,40 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>146514.67</v>
+      </c>
+      <c r="C13" t="n">
+        <v>233548.68</v>
+      </c>
+      <c r="D13" t="n">
+        <v>249581.55</v>
+      </c>
+      <c r="E13" t="n">
+        <v>249647.53</v>
+      </c>
+      <c r="F13" t="n">
+        <v>249547.88</v>
+      </c>
+      <c r="G13" t="n">
+        <v>249324.46</v>
+      </c>
+      <c r="H13" t="n">
+        <v>249598.68</v>
+      </c>
+      <c r="I13" t="n">
+        <v>249447.38</v>
+      </c>
+      <c r="J13" t="n">
+        <v>249585.11</v>
+      </c>
+      <c r="K13" t="n">
+        <v>249279.03</v>
+      </c>
+      <c r="L13" t="n">
+        <v>235710.03</v>
+      </c>
+      <c r="M13" t="n">
         <v>187231.71</v>
-      </c>
-      <c r="C13" t="n">
-        <v>187368.9</v>
-      </c>
-      <c r="D13" t="n">
-        <v>168817.97</v>
-      </c>
-      <c r="E13" t="n">
-        <v>199223.39</v>
-      </c>
-      <c r="F13" t="n">
-        <v>226698.26</v>
-      </c>
-      <c r="G13" t="n">
-        <v>233972.54</v>
       </c>
     </row>
     <row r="14">
@@ -772,22 +1018,40 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>187839.74</v>
+      </c>
+      <c r="C14" t="n">
+        <v>187844.01</v>
+      </c>
+      <c r="D14" t="n">
+        <v>187957.48</v>
+      </c>
+      <c r="E14" t="n">
+        <v>187915.67</v>
+      </c>
+      <c r="F14" t="n">
+        <v>187841.06</v>
+      </c>
+      <c r="G14" t="n">
+        <v>187860.33</v>
+      </c>
+      <c r="H14" t="n">
+        <v>187854.45</v>
+      </c>
+      <c r="I14" t="n">
+        <v>187776.1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>187931.61</v>
+      </c>
+      <c r="K14" t="n">
+        <v>187777.77</v>
+      </c>
+      <c r="L14" t="n">
+        <v>187933.29</v>
+      </c>
+      <c r="M14" t="n">
         <v>187830.66</v>
-      </c>
-      <c r="C14" t="n">
-        <v>187840.9</v>
-      </c>
-      <c r="D14" t="n">
-        <v>187358.28</v>
-      </c>
-      <c r="E14" t="n">
-        <v>187907.41</v>
-      </c>
-      <c r="F14" t="n">
-        <v>187849.11</v>
-      </c>
-      <c r="G14" t="n">
-        <v>187901.96</v>
       </c>
     </row>
     <row r="15">
@@ -797,22 +1061,40 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>731281.3</v>
+      </c>
+      <c r="C15" t="n">
+        <v>729452.8199999999</v>
+      </c>
+      <c r="D15" t="n">
+        <v>728300.92</v>
+      </c>
+      <c r="E15" t="n">
+        <v>725938.38</v>
+      </c>
+      <c r="F15" t="n">
+        <v>725563.4399999999</v>
+      </c>
+      <c r="G15" t="n">
+        <v>726151.83</v>
+      </c>
+      <c r="H15" t="n">
+        <v>722991.84</v>
+      </c>
+      <c r="I15" t="n">
+        <v>712931.05</v>
+      </c>
+      <c r="J15" t="n">
+        <v>708925.72</v>
+      </c>
+      <c r="K15" t="n">
+        <v>702841.89</v>
+      </c>
+      <c r="L15" t="n">
+        <v>700336.7</v>
+      </c>
+      <c r="M15" t="n">
         <v>689854.33</v>
-      </c>
-      <c r="C15" t="n">
-        <v>685028.29</v>
-      </c>
-      <c r="D15" t="n">
-        <v>677144.14</v>
-      </c>
-      <c r="E15" t="n">
-        <v>674013.08</v>
-      </c>
-      <c r="F15" t="n">
-        <v>670246.17</v>
-      </c>
-      <c r="G15" t="n">
-        <v>666911.03</v>
       </c>
     </row>
     <row r="16">
@@ -821,23 +1103,37 @@
           <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>268603.3</v>
+      </c>
+      <c r="E16" t="n">
+        <v>273974.04</v>
+      </c>
+      <c r="F16" t="n">
+        <v>273821.92</v>
+      </c>
+      <c r="G16" t="n">
+        <v>292560.64</v>
+      </c>
+      <c r="H16" t="n">
+        <v>292659.37</v>
+      </c>
+      <c r="I16" t="n">
+        <v>292512.81</v>
+      </c>
+      <c r="J16" t="n">
+        <v>276136.96</v>
+      </c>
+      <c r="K16" t="n">
+        <v>276084.16</v>
+      </c>
+      <c r="L16" t="n">
+        <v>276044.3</v>
+      </c>
+      <c r="M16" t="n">
         <v>275457.59</v>
-      </c>
-      <c r="C16" t="n">
-        <v>276023.84</v>
-      </c>
-      <c r="D16" t="n">
-        <v>275441.9</v>
-      </c>
-      <c r="E16" t="n">
-        <v>291315.43</v>
-      </c>
-      <c r="F16" t="n">
-        <v>290490.95</v>
-      </c>
-      <c r="G16" t="n">
-        <v>260745.92</v>
       </c>
     </row>
     <row r="17">
@@ -847,22 +1143,38 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>10230.37</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>10198.72</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10094.93</v>
+      </c>
+      <c r="F17" t="n">
+        <v>9992.700000000001</v>
+      </c>
+      <c r="G17" t="n">
+        <v>10001.41</v>
+      </c>
+      <c r="H17" t="n">
+        <v>9940.440000000001</v>
+      </c>
+      <c r="I17" t="n">
+        <v>10018.79</v>
+      </c>
+      <c r="J17" t="n">
+        <v>9871.870000000001</v>
+      </c>
+      <c r="K17" t="n">
+        <v>9791.950000000001</v>
+      </c>
+      <c r="L17" t="n">
+        <v>10121.12</v>
+      </c>
+      <c r="M17" t="n">
         <v>9929.1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>10230.13</v>
-      </c>
-      <c r="D17" t="n">
-        <v>9797.309999999999</v>
-      </c>
-      <c r="E17" t="n">
-        <v>9821.610000000001</v>
-      </c>
-      <c r="F17" t="n">
-        <v>10051.74</v>
-      </c>
-      <c r="G17" t="n">
-        <v>40369.83</v>
       </c>
     </row>
     <row r="18">
@@ -872,22 +1184,38 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>42544.86</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>42453.02</v>
+      </c>
+      <c r="E18" t="n">
+        <v>42474.68</v>
+      </c>
+      <c r="F18" t="n">
+        <v>42498.57</v>
+      </c>
+      <c r="G18" t="n">
+        <v>42411.72</v>
+      </c>
+      <c r="H18" t="n">
+        <v>42443.25</v>
+      </c>
+      <c r="I18" t="n">
+        <v>42528.97</v>
+      </c>
+      <c r="J18" t="n">
+        <v>42428.78</v>
+      </c>
+      <c r="K18" t="n">
+        <v>42406.12</v>
+      </c>
+      <c r="L18" t="n">
+        <v>42533.92</v>
+      </c>
+      <c r="M18" t="n">
         <v>42488.67</v>
-      </c>
-      <c r="C18" t="n">
-        <v>42441.23</v>
-      </c>
-      <c r="D18" t="n">
-        <v>42355.05</v>
-      </c>
-      <c r="E18" t="n">
-        <v>42405.08</v>
-      </c>
-      <c r="F18" t="n">
-        <v>42534.2</v>
-      </c>
-      <c r="G18" t="n">
-        <v>42484.9</v>
       </c>
     </row>
     <row r="19">
@@ -897,22 +1225,38 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>277593.58</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>272693.31</v>
+      </c>
+      <c r="E19" t="n">
+        <v>267434.39</v>
+      </c>
+      <c r="F19" t="n">
+        <v>262468.55</v>
+      </c>
+      <c r="G19" t="n">
+        <v>262605.11</v>
+      </c>
+      <c r="H19" t="n">
+        <v>262504.47</v>
+      </c>
+      <c r="I19" t="n">
+        <v>262471.08</v>
+      </c>
+      <c r="J19" t="n">
+        <v>262214.45</v>
+      </c>
+      <c r="K19" t="n">
+        <v>262438.83</v>
+      </c>
+      <c r="L19" t="n">
+        <v>262337.95</v>
+      </c>
+      <c r="M19" t="n">
         <v>262880.39</v>
-      </c>
-      <c r="C19" t="n">
-        <v>262578.31</v>
-      </c>
-      <c r="D19" t="n">
-        <v>261580.19</v>
-      </c>
-      <c r="E19" t="n">
-        <v>262747.81</v>
-      </c>
-      <c r="F19" t="n">
-        <v>262674.03</v>
-      </c>
-      <c r="G19" t="n">
-        <v>233071.96</v>
       </c>
     </row>
     <row r="20">
@@ -922,22 +1266,38 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>25359.32</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>24954.68</v>
+      </c>
+      <c r="E20" t="n">
+        <v>24559.13</v>
+      </c>
+      <c r="F20" t="n">
+        <v>24671.48</v>
+      </c>
+      <c r="G20" t="n">
+        <v>24715.97</v>
+      </c>
+      <c r="H20" t="n">
+        <v>25232.57</v>
+      </c>
+      <c r="I20" t="n">
+        <v>25374.64</v>
+      </c>
+      <c r="J20" t="n">
+        <v>24607.69</v>
+      </c>
+      <c r="K20" t="n">
+        <v>25170.31</v>
+      </c>
+      <c r="L20" t="n">
+        <v>24583.31</v>
+      </c>
+      <c r="M20" t="n">
         <v>24999.59</v>
-      </c>
-      <c r="C20" t="n">
-        <v>24641.55</v>
-      </c>
-      <c r="D20" t="n">
-        <v>24991.41</v>
-      </c>
-      <c r="E20" t="n">
-        <v>24895.02</v>
-      </c>
-      <c r="F20" t="n">
-        <v>25100.13</v>
-      </c>
-      <c r="G20" t="n">
-        <v>25107.4</v>
       </c>
     </row>
     <row r="21">
@@ -947,22 +1307,38 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>184135.65</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>172373.97</v>
+      </c>
+      <c r="E21" t="n">
+        <v>203121.54</v>
+      </c>
+      <c r="F21" t="n">
+        <v>203763.74</v>
+      </c>
+      <c r="G21" t="n">
+        <v>205312.14</v>
+      </c>
+      <c r="H21" t="n">
+        <v>205315.59</v>
+      </c>
+      <c r="I21" t="n">
+        <v>203000.45</v>
+      </c>
+      <c r="J21" t="n">
+        <v>203177.37</v>
+      </c>
+      <c r="K21" t="n">
+        <v>203068.91</v>
+      </c>
+      <c r="L21" t="n">
+        <v>185622.56</v>
+      </c>
+      <c r="M21" t="n">
         <v>181670.27</v>
-      </c>
-      <c r="C21" t="n">
-        <v>180927.59</v>
-      </c>
-      <c r="D21" t="n">
-        <v>178187.04</v>
-      </c>
-      <c r="E21" t="n">
-        <v>174938.23</v>
-      </c>
-      <c r="F21" t="n">
-        <v>182106.69</v>
-      </c>
-      <c r="G21" t="n">
-        <v>191744.64</v>
       </c>
     </row>
     <row r="22">
@@ -972,22 +1348,40 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>219846.69</v>
+      </c>
+      <c r="C22" t="n">
+        <v>230285.08</v>
+      </c>
+      <c r="D22" t="n">
+        <v>231924.27</v>
+      </c>
+      <c r="E22" t="n">
+        <v>235363.3</v>
+      </c>
+      <c r="F22" t="n">
+        <v>236381.23</v>
+      </c>
+      <c r="G22" t="n">
+        <v>246659.24</v>
+      </c>
+      <c r="H22" t="n">
+        <v>246848.7</v>
+      </c>
+      <c r="I22" t="n">
+        <v>246786.54</v>
+      </c>
+      <c r="J22" t="n">
+        <v>266989.25</v>
+      </c>
+      <c r="K22" t="n">
+        <v>266530.6</v>
+      </c>
+      <c r="L22" t="n">
+        <v>256925.9</v>
+      </c>
+      <c r="M22" t="n">
         <v>256446.46</v>
-      </c>
-      <c r="C22" t="n">
-        <v>248753.61</v>
-      </c>
-      <c r="D22" t="n">
-        <v>247856.38</v>
-      </c>
-      <c r="E22" t="n">
-        <v>308919.93</v>
-      </c>
-      <c r="F22" t="n">
-        <v>312521.15</v>
-      </c>
-      <c r="G22" t="n">
-        <v>291943.44</v>
       </c>
     </row>
     <row r="23">
@@ -997,22 +1391,40 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>54382.44</v>
+      </c>
+      <c r="C23" t="n">
+        <v>54419.07</v>
+      </c>
+      <c r="D23" t="n">
+        <v>54226.45</v>
+      </c>
+      <c r="E23" t="n">
+        <v>54261.86</v>
+      </c>
+      <c r="F23" t="n">
+        <v>54316.25</v>
+      </c>
+      <c r="G23" t="n">
+        <v>54363.02</v>
+      </c>
+      <c r="H23" t="n">
+        <v>54273.79</v>
+      </c>
+      <c r="I23" t="n">
+        <v>54236.53</v>
+      </c>
+      <c r="J23" t="n">
+        <v>54352.14</v>
+      </c>
+      <c r="K23" t="n">
+        <v>54258.32</v>
+      </c>
+      <c r="L23" t="n">
+        <v>54238.21</v>
+      </c>
+      <c r="M23" t="n">
         <v>54331.66</v>
-      </c>
-      <c r="C23" t="n">
-        <v>54308.52</v>
-      </c>
-      <c r="D23" t="n">
-        <v>54194.87</v>
-      </c>
-      <c r="E23" t="n">
-        <v>54354.17</v>
-      </c>
-      <c r="F23" t="n">
-        <v>54314.4</v>
-      </c>
-      <c r="G23" t="n">
-        <v>54365.21</v>
       </c>
     </row>
     <row r="24">
@@ -1022,22 +1434,40 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>23186.18</v>
+      </c>
+      <c r="C24" t="n">
+        <v>23208.67</v>
+      </c>
+      <c r="D24" t="n">
         <v>23198.2</v>
       </c>
-      <c r="C24" t="n">
-        <v>23201.73</v>
-      </c>
-      <c r="D24" t="n">
-        <v>23084.91</v>
-      </c>
       <c r="E24" t="n">
-        <v>23171.63</v>
+        <v>23184.78</v>
       </c>
       <c r="F24" t="n">
-        <v>23181.23</v>
+        <v>23175.93</v>
       </c>
       <c r="G24" t="n">
-        <v>23192.95</v>
+        <v>23152.54</v>
+      </c>
+      <c r="H24" t="n">
+        <v>23219.38</v>
+      </c>
+      <c r="I24" t="n">
+        <v>23180.24</v>
+      </c>
+      <c r="J24" t="n">
+        <v>23209.7</v>
+      </c>
+      <c r="K24" t="n">
+        <v>23152.03</v>
+      </c>
+      <c r="L24" t="n">
+        <v>23163.49</v>
+      </c>
+      <c r="M24" t="n">
+        <v>23198.2</v>
       </c>
     </row>
     <row r="25">
@@ -1047,22 +1477,40 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>5375.02</v>
+      </c>
+      <c r="C25" t="n">
+        <v>5374.26</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5360.83</v>
+      </c>
+      <c r="E25" t="n">
+        <v>5360.13</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5378.22</v>
+      </c>
+      <c r="G25" t="n">
+        <v>5358.03</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5376.63</v>
+      </c>
+      <c r="I25" t="n">
+        <v>5365.62</v>
+      </c>
+      <c r="J25" t="n">
+        <v>5377.83</v>
+      </c>
+      <c r="K25" t="n">
+        <v>5366.6</v>
+      </c>
+      <c r="L25" t="n">
+        <v>5380.57</v>
+      </c>
+      <c r="M25" t="n">
         <v>5375.99</v>
-      </c>
-      <c r="C25" t="n">
-        <v>5370.42</v>
-      </c>
-      <c r="D25" t="n">
-        <v>5359.24</v>
-      </c>
-      <c r="E25" t="n">
-        <v>5361.8</v>
-      </c>
-      <c r="F25" t="n">
-        <v>5363.38</v>
-      </c>
-      <c r="G25" t="n">
-        <v>5373.86</v>
       </c>
     </row>
     <row r="26">
@@ -1072,22 +1520,40 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>95060.08</v>
+      </c>
+      <c r="C26" t="n">
+        <v>95107.03999999999</v>
+      </c>
+      <c r="D26" t="n">
+        <v>95166.96000000001</v>
+      </c>
+      <c r="E26" t="n">
+        <v>95027.42</v>
+      </c>
+      <c r="F26" t="n">
+        <v>85025.46000000001</v>
+      </c>
+      <c r="G26" t="n">
+        <v>79948.85000000001</v>
+      </c>
+      <c r="H26" t="n">
+        <v>75157.03</v>
+      </c>
+      <c r="I26" t="n">
+        <v>65180.74</v>
+      </c>
+      <c r="J26" t="n">
+        <v>65142.51</v>
+      </c>
+      <c r="K26" t="n">
+        <v>62978.75</v>
+      </c>
+      <c r="L26" t="n">
+        <v>58159.18</v>
+      </c>
+      <c r="M26" t="n">
         <v>58100.9</v>
-      </c>
-      <c r="C26" t="n">
-        <v>58070.54</v>
-      </c>
-      <c r="D26" t="n">
-        <v>57897.87</v>
-      </c>
-      <c r="E26" t="n">
-        <v>58111.96</v>
-      </c>
-      <c r="F26" t="n">
-        <v>58112.94</v>
-      </c>
-      <c r="G26" t="n">
-        <v>53136.51</v>
       </c>
     </row>
     <row r="27">
@@ -1097,22 +1563,40 @@
         </is>
       </c>
       <c r="B27" t="n">
+        <v>102176.73</v>
+      </c>
+      <c r="C27" t="n">
+        <v>112199.76</v>
+      </c>
+      <c r="D27" t="n">
+        <v>91858.87</v>
+      </c>
+      <c r="E27" t="n">
+        <v>91987.56</v>
+      </c>
+      <c r="F27" t="n">
+        <v>91895.23</v>
+      </c>
+      <c r="G27" t="n">
+        <v>92056.25999999999</v>
+      </c>
+      <c r="H27" t="n">
+        <v>106978</v>
+      </c>
+      <c r="I27" t="n">
+        <v>107111.79</v>
+      </c>
+      <c r="J27" t="n">
+        <v>107022.83</v>
+      </c>
+      <c r="K27" t="n">
+        <v>106931.17</v>
+      </c>
+      <c r="L27" t="n">
+        <v>102082.11</v>
+      </c>
+      <c r="M27" t="n">
         <v>101935.18</v>
-      </c>
-      <c r="C27" t="n">
-        <v>102091.15</v>
-      </c>
-      <c r="D27" t="n">
-        <v>101788.7</v>
-      </c>
-      <c r="E27" t="n">
-        <v>101954.4</v>
-      </c>
-      <c r="F27" t="n">
-        <v>102055.57</v>
-      </c>
-      <c r="G27" t="n">
-        <v>106780.77</v>
       </c>
     </row>
     <row r="28">
@@ -1122,22 +1606,40 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>30650.72</v>
+      </c>
+      <c r="C28" t="n">
+        <v>32094.72</v>
+      </c>
+      <c r="D28" t="n">
+        <v>41202.07</v>
+      </c>
+      <c r="E28" t="n">
+        <v>43171.36</v>
+      </c>
+      <c r="F28" t="n">
+        <v>42770.57</v>
+      </c>
+      <c r="G28" t="n">
+        <v>42691.22</v>
+      </c>
+      <c r="H28" t="n">
+        <v>50844.21</v>
+      </c>
+      <c r="I28" t="n">
+        <v>50819.16</v>
+      </c>
+      <c r="J28" t="n">
+        <v>50822.04</v>
+      </c>
+      <c r="K28" t="n">
+        <v>50800.44</v>
+      </c>
+      <c r="L28" t="n">
+        <v>50457.23</v>
+      </c>
+      <c r="M28" t="n">
         <v>44484.74</v>
-      </c>
-      <c r="C28" t="n">
-        <v>44444.54</v>
-      </c>
-      <c r="D28" t="n">
-        <v>43073.39</v>
-      </c>
-      <c r="E28" t="n">
-        <v>42769.44</v>
-      </c>
-      <c r="F28" t="n">
-        <v>43500.14</v>
-      </c>
-      <c r="G28" t="n">
-        <v>46130.76</v>
       </c>
     </row>
     <row r="29">
@@ -1147,22 +1649,40 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>3618.11</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3617.28</v>
+      </c>
+      <c r="D29" t="n">
+        <v>4121.17</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4129.98</v>
+      </c>
+      <c r="F29" t="n">
+        <v>4116.1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4122.01</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4126.83</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4126.4</v>
+      </c>
+      <c r="J29" t="n">
+        <v>4127.96</v>
+      </c>
+      <c r="K29" t="n">
+        <v>4131.2</v>
+      </c>
+      <c r="L29" t="n">
+        <v>4122.88</v>
+      </c>
+      <c r="M29" t="n">
         <v>4125.76</v>
-      </c>
-      <c r="C29" t="n">
-        <v>3860.95</v>
-      </c>
-      <c r="D29" t="n">
-        <v>3860.26</v>
-      </c>
-      <c r="E29" t="n">
-        <v>3858.62</v>
-      </c>
-      <c r="F29" t="n">
-        <v>3862.07</v>
-      </c>
-      <c r="G29" t="n">
-        <v>3862.95</v>
       </c>
     </row>
     <row r="30">
@@ -1172,22 +1692,40 @@
         </is>
       </c>
       <c r="B30" t="n">
+        <v>37116.79</v>
+      </c>
+      <c r="C30" t="n">
+        <v>41361.28</v>
+      </c>
+      <c r="D30" t="n">
+        <v>41360.04</v>
+      </c>
+      <c r="E30" t="n">
+        <v>46755.1</v>
+      </c>
+      <c r="F30" t="n">
+        <v>44936.9</v>
+      </c>
+      <c r="G30" t="n">
+        <v>44997.33</v>
+      </c>
+      <c r="H30" t="n">
+        <v>45008.59</v>
+      </c>
+      <c r="I30" t="n">
+        <v>44948.81</v>
+      </c>
+      <c r="J30" t="n">
+        <v>45035.13</v>
+      </c>
+      <c r="K30" t="n">
+        <v>41998.55</v>
+      </c>
+      <c r="L30" t="n">
+        <v>40286.43</v>
+      </c>
+      <c r="M30" t="n">
         <v>40156.69</v>
-      </c>
-      <c r="C30" t="n">
-        <v>40044.17</v>
-      </c>
-      <c r="D30" t="n">
-        <v>39959.2</v>
-      </c>
-      <c r="E30" t="n">
-        <v>40077.77</v>
-      </c>
-      <c r="F30" t="n">
-        <v>41606.4</v>
-      </c>
-      <c r="G30" t="n">
-        <v>44134.59</v>
       </c>
     </row>
     <row r="31">
@@ -1197,22 +1735,40 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>16184.43</v>
+      </c>
+      <c r="C31" t="n">
+        <v>16218.33</v>
+      </c>
+      <c r="D31" t="n">
+        <v>16188.9</v>
+      </c>
+      <c r="E31" t="n">
+        <v>16187.36</v>
+      </c>
+      <c r="F31" t="n">
+        <v>16190.75</v>
+      </c>
+      <c r="G31" t="n">
+        <v>16241.51</v>
+      </c>
+      <c r="H31" t="n">
+        <v>16177.78</v>
+      </c>
+      <c r="I31" t="n">
+        <v>16218.46</v>
+      </c>
+      <c r="J31" t="n">
+        <v>16242.61</v>
+      </c>
+      <c r="K31" t="n">
+        <v>16173.44</v>
+      </c>
+      <c r="L31" t="n">
+        <v>16240.68</v>
+      </c>
+      <c r="M31" t="n">
         <v>16254.08</v>
-      </c>
-      <c r="C31" t="n">
-        <v>16229.21</v>
-      </c>
-      <c r="D31" t="n">
-        <v>16222.68</v>
-      </c>
-      <c r="E31" t="n">
-        <v>29188.48</v>
-      </c>
-      <c r="F31" t="n">
-        <v>29252.13</v>
-      </c>
-      <c r="G31" t="n">
-        <v>29225.31</v>
       </c>
     </row>
     <row r="32">
@@ -1222,22 +1778,40 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>26248.2</v>
+      </c>
+      <c r="C32" t="n">
+        <v>26182.15</v>
+      </c>
+      <c r="D32" t="n">
+        <v>15864.27</v>
+      </c>
+      <c r="E32" t="n">
+        <v>18706.77</v>
+      </c>
+      <c r="F32" t="n">
+        <v>22087.75</v>
+      </c>
+      <c r="G32" t="n">
+        <v>22123.74</v>
+      </c>
+      <c r="H32" t="n">
+        <v>22115.92</v>
+      </c>
+      <c r="I32" t="n">
+        <v>22087.19</v>
+      </c>
+      <c r="J32" t="n">
+        <v>22103.25</v>
+      </c>
+      <c r="K32" t="n">
+        <v>22068.23</v>
+      </c>
+      <c r="L32" t="n">
+        <v>22100.36</v>
+      </c>
+      <c r="M32" t="n">
         <v>22094.79</v>
-      </c>
-      <c r="C32" t="n">
-        <v>25768.64</v>
-      </c>
-      <c r="D32" t="n">
-        <v>25787.04</v>
-      </c>
-      <c r="E32" t="n">
-        <v>25783.31</v>
-      </c>
-      <c r="F32" t="n">
-        <v>25794.05</v>
-      </c>
-      <c r="G32" t="n">
-        <v>25760.87</v>
       </c>
     </row>
     <row r="33">
@@ -1247,22 +1821,38 @@
         </is>
       </c>
       <c r="B33" t="n">
+        <v>69990.33</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="n">
+        <v>79868.35000000001</v>
+      </c>
+      <c r="E33" t="n">
+        <v>79990.63</v>
+      </c>
+      <c r="F33" t="n">
+        <v>80045.2</v>
+      </c>
+      <c r="G33" t="n">
+        <v>85027.13</v>
+      </c>
+      <c r="H33" t="n">
+        <v>85000.55</v>
+      </c>
+      <c r="I33" t="n">
+        <v>84941.17</v>
+      </c>
+      <c r="J33" t="n">
+        <v>85047.63</v>
+      </c>
+      <c r="K33" t="n">
+        <v>84955.78999999999</v>
+      </c>
+      <c r="L33" t="n">
+        <v>84886.72</v>
+      </c>
+      <c r="M33" t="n">
         <v>80025.5</v>
-      </c>
-      <c r="C33" t="n">
-        <v>80007.81</v>
-      </c>
-      <c r="D33" t="n">
-        <v>79670.78999999999</v>
-      </c>
-      <c r="E33" t="n">
-        <v>79906.95</v>
-      </c>
-      <c r="F33" t="n">
-        <v>79970.25</v>
-      </c>
-      <c r="G33" t="n">
-        <v>79906.16</v>
       </c>
     </row>
     <row r="34">
@@ -1272,22 +1862,40 @@
         </is>
       </c>
       <c r="B34" t="n">
+        <v>98147.53999999999</v>
+      </c>
+      <c r="C34" t="n">
+        <v>98071.52</v>
+      </c>
+      <c r="D34" t="n">
+        <v>98042.71000000001</v>
+      </c>
+      <c r="E34" t="n">
+        <v>98330.16</v>
+      </c>
+      <c r="F34" t="n">
+        <v>98138.17999999999</v>
+      </c>
+      <c r="G34" t="n">
+        <v>98015.89</v>
+      </c>
+      <c r="H34" t="n">
+        <v>97888.31</v>
+      </c>
+      <c r="I34" t="n">
+        <v>98102.06</v>
+      </c>
+      <c r="J34" t="n">
+        <v>97994.44</v>
+      </c>
+      <c r="K34" t="n">
+        <v>98082.98</v>
+      </c>
+      <c r="L34" t="n">
+        <v>98037.31</v>
+      </c>
+      <c r="M34" t="n">
         <v>98304.58</v>
-      </c>
-      <c r="C34" t="n">
-        <v>97922.42</v>
-      </c>
-      <c r="D34" t="n">
-        <v>98059.34</v>
-      </c>
-      <c r="E34" t="n">
-        <v>173528.59</v>
-      </c>
-      <c r="F34" t="n">
-        <v>173507.37</v>
-      </c>
-      <c r="G34" t="n">
-        <v>173599.91</v>
       </c>
     </row>
     <row r="35">
@@ -1297,22 +1905,40 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>58260.09</v>
+      </c>
+      <c r="C35" t="n">
+        <v>58343.03</v>
+      </c>
+      <c r="D35" t="n">
+        <v>63330.51</v>
+      </c>
+      <c r="E35" t="n">
+        <v>65338.67</v>
+      </c>
+      <c r="F35" t="n">
+        <v>81271.64</v>
+      </c>
+      <c r="G35" t="n">
+        <v>71384.10000000001</v>
+      </c>
+      <c r="H35" t="n">
+        <v>85286.48</v>
+      </c>
+      <c r="I35" t="n">
+        <v>70244.48</v>
+      </c>
+      <c r="J35" t="n">
+        <v>65731.89</v>
+      </c>
+      <c r="K35" t="n">
+        <v>65799.03999999999</v>
+      </c>
+      <c r="L35" t="n">
+        <v>65858.35000000001</v>
+      </c>
+      <c r="M35" t="n">
         <v>65814.77</v>
-      </c>
-      <c r="C35" t="n">
-        <v>65886.63</v>
-      </c>
-      <c r="D35" t="n">
-        <v>65560.39</v>
-      </c>
-      <c r="E35" t="n">
-        <v>65893.27</v>
-      </c>
-      <c r="F35" t="n">
-        <v>71895.44</v>
-      </c>
-      <c r="G35" t="n">
-        <v>74397.96000000001</v>
       </c>
     </row>
     <row r="36">
@@ -1322,22 +1948,40 @@
         </is>
       </c>
       <c r="B36" t="n">
+        <v>84985.53999999999</v>
+      </c>
+      <c r="C36" t="n">
+        <v>84911.81</v>
+      </c>
+      <c r="D36" t="n">
+        <v>84917.67999999999</v>
+      </c>
+      <c r="E36" t="n">
+        <v>84821.64</v>
+      </c>
+      <c r="F36" t="n">
+        <v>84724.11</v>
+      </c>
+      <c r="G36" t="n">
+        <v>68426.75999999999</v>
+      </c>
+      <c r="H36" t="n">
+        <v>68726.00999999999</v>
+      </c>
+      <c r="I36" t="n">
+        <v>68650.21000000001</v>
+      </c>
+      <c r="J36" t="n">
+        <v>68687.31</v>
+      </c>
+      <c r="K36" t="n">
+        <v>68629.10000000001</v>
+      </c>
+      <c r="L36" t="n">
+        <v>68660.81</v>
+      </c>
+      <c r="M36" t="n">
         <v>68646.23</v>
-      </c>
-      <c r="C36" t="n">
-        <v>81655.73</v>
-      </c>
-      <c r="D36" t="n">
-        <v>81321.06</v>
-      </c>
-      <c r="E36" t="n">
-        <v>81725.46000000001</v>
-      </c>
-      <c r="F36" t="n">
-        <v>81463.74000000001</v>
-      </c>
-      <c r="G36" t="n">
-        <v>81489.32000000001</v>
       </c>
     </row>
     <row r="37">
@@ -1347,147 +1991,280 @@
         </is>
       </c>
       <c r="B37" t="n">
+        <v>60333.63</v>
+      </c>
+      <c r="C37" t="n">
+        <v>60354.15</v>
+      </c>
+      <c r="D37" t="n">
+        <v>56713.04</v>
+      </c>
+      <c r="E37" t="n">
+        <v>55729.21</v>
+      </c>
+      <c r="F37" t="n">
+        <v>60122.7</v>
+      </c>
+      <c r="G37" t="n">
+        <v>60943.16</v>
+      </c>
+      <c r="H37" t="n">
+        <v>61130.69</v>
+      </c>
+      <c r="I37" t="n">
+        <v>61108.72</v>
+      </c>
+      <c r="J37" t="n">
+        <v>61069.43</v>
+      </c>
+      <c r="K37" t="n">
+        <v>61139.71</v>
+      </c>
+      <c r="L37" t="n">
+        <v>61114.75</v>
+      </c>
+      <c r="M37" t="n">
         <v>59214.01</v>
-      </c>
-      <c r="C37" t="n">
-        <v>56052.81</v>
-      </c>
-      <c r="D37" t="n">
-        <v>55975.35</v>
-      </c>
-      <c r="E37" t="n">
-        <v>56772.95</v>
-      </c>
-      <c r="F37" t="n">
-        <v>55945.98</v>
-      </c>
-      <c r="G37" t="n">
-        <v>61046.21</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1334142.98</v>
+        <v>1120946.22</v>
       </c>
       <c r="C38" t="n">
-        <v>1630409.2</v>
+        <v>1119813.64</v>
       </c>
       <c r="D38" t="n">
-        <v>1625877.16</v>
-      </c>
-      <c r="E38" t="n">
-        <v>1740753.54</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1799130.26</v>
-      </c>
-      <c r="G38" t="n">
-        <v>1798449.28</v>
-      </c>
+        <v>1022894.4</v>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>469987.15</v>
+        <v>1181522.05</v>
       </c>
       <c r="C39" t="n">
-        <v>470036.23</v>
+        <v>1182138.57</v>
       </c>
       <c r="D39" t="n">
-        <v>469079.68</v>
+        <v>1182423.26</v>
       </c>
       <c r="E39" t="n">
-        <v>470037.67</v>
+        <v>1182350.01</v>
       </c>
       <c r="F39" t="n">
-        <v>469963.18</v>
+        <v>1182094.09</v>
       </c>
       <c r="G39" t="n">
-        <v>470438.41</v>
+        <v>1182805.94</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1182778.25</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1216011.05</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1217285.82</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1217395.6</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1217031.67</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1334142.98</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>37003.6</v>
+        <v>469846.65</v>
       </c>
       <c r="C40" t="n">
-        <v>37084.48</v>
+        <v>470155.03</v>
       </c>
       <c r="D40" t="n">
-        <v>36946.37</v>
+        <v>469751.05</v>
       </c>
       <c r="E40" t="n">
-        <v>37066.15</v>
+        <v>470397.56</v>
       </c>
       <c r="F40" t="n">
-        <v>37094.46</v>
+        <v>469835.79</v>
       </c>
       <c r="G40" t="n">
-        <v>37071.23</v>
+        <v>470330.04</v>
+      </c>
+      <c r="H40" t="n">
+        <v>469891.29</v>
+      </c>
+      <c r="I40" t="n">
+        <v>469619.69</v>
+      </c>
+      <c r="J40" t="n">
+        <v>470380.13</v>
+      </c>
+      <c r="K40" t="n">
+        <v>469922.78</v>
+      </c>
+      <c r="L40" t="n">
+        <v>469799.12</v>
+      </c>
+      <c r="M40" t="n">
+        <v>469987.15</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>175379.71</v>
+        <v>37010.05</v>
       </c>
       <c r="C41" t="n">
-        <v>182970</v>
+        <v>37052.93</v>
       </c>
       <c r="D41" t="n">
-        <v>181720.53</v>
+        <v>37023.59</v>
       </c>
       <c r="E41" t="n">
-        <v>189772.19</v>
+        <v>37034.58</v>
       </c>
       <c r="F41" t="n">
-        <v>193078.12</v>
+        <v>37008.79</v>
       </c>
       <c r="G41" t="n">
-        <v>192681.31</v>
+        <v>37074.61</v>
+      </c>
+      <c r="H41" t="n">
+        <v>37101.31</v>
+      </c>
+      <c r="I41" t="n">
+        <v>37058.65</v>
+      </c>
+      <c r="J41" t="n">
+        <v>37102.09</v>
+      </c>
+      <c r="K41" t="n">
+        <v>37006.32</v>
+      </c>
+      <c r="L41" t="n">
+        <v>37017.81</v>
+      </c>
+      <c r="M41" t="n">
+        <v>37003.6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>191166.19</v>
+      </c>
+      <c r="C42" t="n">
+        <v>212230.28</v>
+      </c>
+      <c r="D42" t="n">
+        <v>195009.18</v>
+      </c>
+      <c r="E42" t="n">
+        <v>175711.96</v>
+      </c>
+      <c r="F42" t="n">
+        <v>176139.1</v>
+      </c>
+      <c r="G42" t="n">
+        <v>176444.07</v>
+      </c>
+      <c r="H42" t="n">
+        <v>177028.84</v>
+      </c>
+      <c r="I42" t="n">
+        <v>175978.87</v>
+      </c>
+      <c r="J42" t="n">
+        <v>175696.59</v>
+      </c>
+      <c r="K42" t="n">
+        <v>175148.91</v>
+      </c>
+      <c r="L42" t="n">
+        <v>173729.3</v>
+      </c>
+      <c r="M42" t="n">
+        <v>175379.71</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B43" t="n">
+        <v>7455481.48</v>
+      </c>
+      <c r="C43" t="n">
+        <v>7003599.23</v>
+      </c>
+      <c r="D43" t="n">
+        <v>7800367.38</v>
+      </c>
+      <c r="E43" t="n">
+        <v>6852766.56</v>
+      </c>
+      <c r="F43" t="n">
+        <v>6869425.04</v>
+      </c>
+      <c r="G43" t="n">
+        <v>6881318.87</v>
+      </c>
+      <c r="H43" t="n">
+        <v>6904124.71</v>
+      </c>
+      <c r="I43" t="n">
+        <v>6863175.75</v>
+      </c>
+      <c r="J43" t="n">
+        <v>6852166.92</v>
+      </c>
+      <c r="K43" t="n">
+        <v>6830807.33</v>
+      </c>
+      <c r="L43" t="n">
+        <v>6775442.64</v>
+      </c>
+      <c r="M43" t="n">
         <v>6839808.79</v>
-      </c>
-      <c r="C42" t="n">
-        <v>7135829.82</v>
-      </c>
-      <c r="D42" t="n">
-        <v>7087100.64</v>
-      </c>
-      <c r="E42" t="n">
-        <v>7401115.51</v>
-      </c>
-      <c r="F42" t="n">
-        <v>7530046.66</v>
-      </c>
-      <c r="G42" t="n">
-        <v>7514570.9</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BBAR.xlsx
+++ b/backend/src/excel_handler/files/BBAR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:AA43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,132 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>17-02-2023</t>
+          <t>05-05-2023</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>24-02-2023</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>03-03-2023</t>
+          <t>19-05-2023</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-03-2023</t>
+          <t>24-05-2023</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>17-03-2023</t>
+          <t>02-06-2023</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>23-03-2023</t>
+          <t>09-06-2023</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>16-06-2023</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>23-06-2023</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>30-06-2023</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>14-07-2023</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>28-07-2023</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>04-08-2023</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>11-08-2023</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>18-08-2023</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>25-08-2023</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>01-09-2023</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>08-09-2023</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>22-09-2023</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>29-09-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +572,82 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>94509.85000000001</v>
+        <v>95306.99000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>94534.46000000001</v>
+        <v>95500.3</v>
       </c>
       <c r="D2" t="n">
-        <v>120949.27</v>
+        <v>95148.88</v>
       </c>
       <c r="E2" t="n">
-        <v>129663.93</v>
+        <v>95493.73</v>
       </c>
       <c r="F2" t="n">
-        <v>138708.8</v>
+        <v>95477.22</v>
       </c>
       <c r="G2" t="n">
-        <v>138595.66</v>
+        <v>95295.84</v>
       </c>
       <c r="H2" t="n">
-        <v>147325.09</v>
+        <v>95439.23</v>
       </c>
       <c r="I2" t="n">
-        <v>111476.18</v>
+        <v>95362.83</v>
       </c>
       <c r="J2" t="n">
-        <v>103534.56</v>
+        <v>123327.38</v>
       </c>
       <c r="K2" t="n">
-        <v>95373.24000000001</v>
+        <v>123246.52</v>
       </c>
       <c r="L2" t="n">
-        <v>95481.87</v>
+        <v>123513.53</v>
       </c>
       <c r="M2" t="n">
-        <v>95306.99000000001</v>
+        <v>123647.63</v>
+      </c>
+      <c r="N2" t="n">
+        <v>123569</v>
+      </c>
+      <c r="O2" t="n">
+        <v>133225.4</v>
+      </c>
+      <c r="P2" t="n">
+        <v>162525.22</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>167156.05</v>
+      </c>
+      <c r="R2" t="n">
+        <v>206392.08</v>
+      </c>
+      <c r="S2" t="n">
+        <v>220261.33</v>
+      </c>
+      <c r="T2" t="n">
+        <v>220021.64</v>
+      </c>
+      <c r="U2" t="n">
+        <v>229899.6</v>
+      </c>
+      <c r="V2" t="n">
+        <v>269790.93</v>
+      </c>
+      <c r="W2" t="n">
+        <v>270051.77</v>
+      </c>
+      <c r="X2" t="n">
+        <v>269859.62</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>227503.35</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>193670.13</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>189122.76</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +657,82 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>238818.2</v>
+        <v>267713.53</v>
       </c>
       <c r="C3" t="n">
-        <v>239270.73</v>
+        <v>258287.19</v>
       </c>
       <c r="D3" t="n">
-        <v>238977.22</v>
+        <v>257827.77</v>
       </c>
       <c r="E3" t="n">
-        <v>253303.32</v>
+        <v>258396.43</v>
       </c>
       <c r="F3" t="n">
-        <v>253477.7</v>
+        <v>258606.36</v>
       </c>
       <c r="G3" t="n">
-        <v>253164.49</v>
+        <v>258645.83</v>
       </c>
       <c r="H3" t="n">
-        <v>237593.18</v>
+        <v>258993.97</v>
       </c>
       <c r="I3" t="n">
-        <v>237428.43</v>
+        <v>258376.38</v>
       </c>
       <c r="J3" t="n">
-        <v>237561.09</v>
+        <v>272496.36</v>
       </c>
       <c r="K3" t="n">
-        <v>245926.4</v>
+        <v>284221.7</v>
       </c>
       <c r="L3" t="n">
-        <v>246503.83</v>
+        <v>273559.7</v>
       </c>
       <c r="M3" t="n">
-        <v>267713.53</v>
+        <v>278768.09</v>
+      </c>
+      <c r="N3" t="n">
+        <v>278165.42</v>
+      </c>
+      <c r="O3" t="n">
+        <v>278645.87</v>
+      </c>
+      <c r="P3" t="n">
+        <v>278830.05</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>292492.82</v>
+      </c>
+      <c r="R3" t="n">
+        <v>305282.72</v>
+      </c>
+      <c r="S3" t="n">
+        <v>304517.02</v>
+      </c>
+      <c r="T3" t="n">
+        <v>316704</v>
+      </c>
+      <c r="U3" t="n">
+        <v>298165.09</v>
+      </c>
+      <c r="V3" t="n">
+        <v>298402.69</v>
+      </c>
+      <c r="W3" t="n">
+        <v>310091.77</v>
+      </c>
+      <c r="X3" t="n">
+        <v>323902.84</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>324334.22</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>313484.65</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>313753.36</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +742,82 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29313.29</v>
+        <v>31337.46</v>
       </c>
       <c r="C4" t="n">
-        <v>31308.64</v>
+        <v>31345.9</v>
       </c>
       <c r="D4" t="n">
-        <v>31301.64</v>
+        <v>31049.04</v>
       </c>
       <c r="E4" t="n">
-        <v>31258</v>
+        <v>31340.98</v>
       </c>
       <c r="F4" t="n">
-        <v>31348.14</v>
+        <v>31263.97</v>
       </c>
       <c r="G4" t="n">
-        <v>31219.13</v>
+        <v>31279.04</v>
       </c>
       <c r="H4" t="n">
-        <v>31259.28</v>
+        <v>31374.36</v>
       </c>
       <c r="I4" t="n">
-        <v>31293.93</v>
+        <v>31277.54</v>
       </c>
       <c r="J4" t="n">
-        <v>31377.84</v>
+        <v>31288.63</v>
       </c>
       <c r="K4" t="n">
-        <v>31276.89</v>
+        <v>31371.63</v>
       </c>
       <c r="L4" t="n">
-        <v>31287.89</v>
+        <v>31384.34</v>
       </c>
       <c r="M4" t="n">
-        <v>31337.46</v>
+        <v>31087.97</v>
+      </c>
+      <c r="N4" t="n">
+        <v>31672.35</v>
+      </c>
+      <c r="O4" t="n">
+        <v>31358.34</v>
+      </c>
+      <c r="P4" t="n">
+        <v>31309.23</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>50135.04</v>
+      </c>
+      <c r="R4" t="n">
+        <v>50147.13</v>
+      </c>
+      <c r="S4" t="n">
+        <v>50269.09</v>
+      </c>
+      <c r="T4" t="n">
+        <v>50268.15</v>
+      </c>
+      <c r="U4" t="n">
+        <v>43192.01</v>
+      </c>
+      <c r="V4" t="n">
+        <v>43141.79</v>
+      </c>
+      <c r="W4" t="n">
+        <v>39631.6</v>
+      </c>
+      <c r="X4" t="n">
+        <v>39584.72</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>39477.62</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>39662.92</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>39661.41</v>
       </c>
     </row>
     <row r="5">
@@ -631,40 +827,82 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17364.12</v>
+        <v>26044.79</v>
       </c>
       <c r="C5" t="n">
-        <v>17412.14</v>
+        <v>34207.29</v>
       </c>
       <c r="D5" t="n">
-        <v>17463.84</v>
+        <v>34004.32</v>
       </c>
       <c r="E5" t="n">
-        <v>26143.8</v>
+        <v>34202.5</v>
       </c>
       <c r="F5" t="n">
-        <v>26024.24</v>
+        <v>59253.95</v>
       </c>
       <c r="G5" t="n">
-        <v>26186.73</v>
+        <v>67349.66</v>
       </c>
       <c r="H5" t="n">
-        <v>26112.32</v>
+        <v>71557.3</v>
       </c>
       <c r="I5" t="n">
-        <v>26132.01</v>
+        <v>68449.12</v>
       </c>
       <c r="J5" t="n">
-        <v>26148.7</v>
+        <v>83898.95</v>
       </c>
       <c r="K5" t="n">
-        <v>26077.08</v>
+        <v>83726.22</v>
       </c>
       <c r="L5" t="n">
-        <v>26134.81</v>
+        <v>91060.3</v>
       </c>
       <c r="M5" t="n">
-        <v>26044.79</v>
+        <v>95491.95</v>
+      </c>
+      <c r="N5" t="n">
+        <v>102821.65</v>
+      </c>
+      <c r="O5" t="n">
+        <v>105183.89</v>
+      </c>
+      <c r="P5" t="n">
+        <v>107804.28</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>115492.28</v>
+      </c>
+      <c r="R5" t="n">
+        <v>118301.09</v>
+      </c>
+      <c r="S5" t="n">
+        <v>125795.96</v>
+      </c>
+      <c r="T5" t="n">
+        <v>125958.34</v>
+      </c>
+      <c r="U5" t="n">
+        <v>132431.72</v>
+      </c>
+      <c r="V5" t="n">
+        <v>132511.86</v>
+      </c>
+      <c r="W5" t="n">
+        <v>132596.85</v>
+      </c>
+      <c r="X5" t="n">
+        <v>125138.62</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>125404.45</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>108422.29</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>108166.62</v>
       </c>
     </row>
     <row r="6">
@@ -674,40 +912,82 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>79846.41</v>
+        <v>98139.36</v>
       </c>
       <c r="C6" t="n">
-        <v>98190.67</v>
+        <v>98199.8</v>
       </c>
       <c r="D6" t="n">
-        <v>98213.47</v>
+        <v>97918.86</v>
       </c>
       <c r="E6" t="n">
-        <v>98233.36</v>
+        <v>98251.97</v>
       </c>
       <c r="F6" t="n">
-        <v>98258.06</v>
+        <v>98340.22</v>
       </c>
       <c r="G6" t="n">
-        <v>98259.50999999999</v>
+        <v>98375.77</v>
       </c>
       <c r="H6" t="n">
-        <v>98096.97</v>
+        <v>98182.07000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>98125.27</v>
+        <v>98395.66</v>
       </c>
       <c r="J6" t="n">
-        <v>98226.82000000001</v>
+        <v>120298.65</v>
       </c>
       <c r="K6" t="n">
-        <v>98385.07000000001</v>
+        <v>120608</v>
       </c>
       <c r="L6" t="n">
-        <v>98192.17</v>
+        <v>127095.64</v>
       </c>
       <c r="M6" t="n">
-        <v>98139.36</v>
+        <v>182539.27</v>
+      </c>
+      <c r="N6" t="n">
+        <v>193715.42</v>
+      </c>
+      <c r="O6" t="n">
+        <v>193836.52</v>
+      </c>
+      <c r="P6" t="n">
+        <v>193655.18</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>193677.15</v>
+      </c>
+      <c r="R6" t="n">
+        <v>193562.93</v>
+      </c>
+      <c r="S6" t="n">
+        <v>227496.15</v>
+      </c>
+      <c r="T6" t="n">
+        <v>226327.11</v>
+      </c>
+      <c r="U6" t="n">
+        <v>227555.19</v>
+      </c>
+      <c r="V6" t="n">
+        <v>227753.78</v>
+      </c>
+      <c r="W6" t="n">
+        <v>268204.89</v>
+      </c>
+      <c r="X6" t="n">
+        <v>286822.64</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>286816.45</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>286492.46</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>268120.96</v>
       </c>
     </row>
     <row r="7">
@@ -717,40 +997,82 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>328410.27</v>
+        <v>328317.34</v>
       </c>
       <c r="C7" t="n">
-        <v>328385.78</v>
+        <v>328891.97</v>
       </c>
       <c r="D7" t="n">
-        <v>328978.28</v>
+        <v>327633.73</v>
       </c>
       <c r="E7" t="n">
-        <v>328639.26</v>
+        <v>328735.22</v>
       </c>
       <c r="F7" t="n">
-        <v>328450.62</v>
+        <v>328861.63</v>
       </c>
       <c r="G7" t="n">
-        <v>328978.5</v>
+        <v>328819.56</v>
       </c>
       <c r="H7" t="n">
-        <v>328667</v>
+        <v>328240.22</v>
       </c>
       <c r="I7" t="n">
-        <v>328288.18</v>
+        <v>328404.53</v>
       </c>
       <c r="J7" t="n">
-        <v>328356.47</v>
+        <v>328905.67</v>
       </c>
       <c r="K7" t="n">
-        <v>328258.84</v>
+        <v>328854.35</v>
       </c>
       <c r="L7" t="n">
-        <v>328495.53</v>
+        <v>328845.55</v>
       </c>
       <c r="M7" t="n">
-        <v>328317.34</v>
+        <v>328679.94</v>
+      </c>
+      <c r="N7" t="n">
+        <v>328331.98</v>
+      </c>
+      <c r="O7" t="n">
+        <v>328670.28</v>
+      </c>
+      <c r="P7" t="n">
+        <v>328352.55</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>328563.31</v>
+      </c>
+      <c r="R7" t="n">
+        <v>328515.09</v>
+      </c>
+      <c r="S7" t="n">
+        <v>328823.62</v>
+      </c>
+      <c r="T7" t="n">
+        <v>326831.66</v>
+      </c>
+      <c r="U7" t="n">
+        <v>328504.68</v>
+      </c>
+      <c r="V7" t="n">
+        <v>328280.13</v>
+      </c>
+      <c r="W7" t="n">
+        <v>328675.67</v>
+      </c>
+      <c r="X7" t="n">
+        <v>328296.07</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>328550.88</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>328689.27</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>306129.77</v>
       </c>
     </row>
     <row r="8">
@@ -760,40 +1082,82 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>579063.9</v>
+        <v>609769.3199999999</v>
       </c>
       <c r="C8" t="n">
-        <v>609869.29</v>
+        <v>609752.05</v>
       </c>
       <c r="D8" t="n">
-        <v>609991.74</v>
+        <v>608375.35</v>
       </c>
       <c r="E8" t="n">
-        <v>610019.79</v>
+        <v>609906.8100000001</v>
       </c>
       <c r="F8" t="n">
-        <v>610096.85</v>
+        <v>609897.89</v>
       </c>
       <c r="G8" t="n">
-        <v>609931.85</v>
+        <v>610049.65</v>
       </c>
       <c r="H8" t="n">
-        <v>610023.09</v>
+        <v>609846.8</v>
       </c>
       <c r="I8" t="n">
-        <v>609838.36</v>
+        <v>609976.59</v>
       </c>
       <c r="J8" t="n">
-        <v>609747.87</v>
+        <v>609977.67</v>
       </c>
       <c r="K8" t="n">
-        <v>610071.08</v>
+        <v>610093.29</v>
       </c>
       <c r="L8" t="n">
-        <v>609740.17</v>
+        <v>610095.5699999999</v>
       </c>
       <c r="M8" t="n">
-        <v>609769.3199999999</v>
+        <v>610042.98</v>
+      </c>
+      <c r="N8" t="n">
+        <v>609879.17</v>
+      </c>
+      <c r="O8" t="n">
+        <v>581211.24</v>
+      </c>
+      <c r="P8" t="n">
+        <v>581265</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>581006.5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>581036.83</v>
+      </c>
+      <c r="S8" t="n">
+        <v>580960.84</v>
+      </c>
+      <c r="T8" t="n">
+        <v>578363.79</v>
+      </c>
+      <c r="U8" t="n">
+        <v>581375.96</v>
+      </c>
+      <c r="V8" t="n">
+        <v>581133.12</v>
+      </c>
+      <c r="W8" t="n">
+        <v>581266.48</v>
+      </c>
+      <c r="X8" t="n">
+        <v>581142.77</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>581188.5600000001</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>581208.09</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>581000.5</v>
       </c>
     </row>
     <row r="9">
@@ -803,40 +1167,82 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11574.97</v>
+        <v>12893.38</v>
       </c>
       <c r="C9" t="n">
-        <v>7285.59</v>
+        <v>12869.85</v>
       </c>
       <c r="D9" t="n">
-        <v>7287.83</v>
+        <v>12831.99</v>
       </c>
       <c r="E9" t="n">
-        <v>7294.14</v>
+        <v>12885.16</v>
       </c>
       <c r="F9" t="n">
-        <v>7261.99</v>
+        <v>12863.38</v>
       </c>
       <c r="G9" t="n">
-        <v>12891.35</v>
+        <v>12870.34</v>
       </c>
       <c r="H9" t="n">
-        <v>12887.05</v>
+        <v>12869.33</v>
       </c>
       <c r="I9" t="n">
-        <v>12862.96</v>
+        <v>12887.88</v>
       </c>
       <c r="J9" t="n">
-        <v>12867.03</v>
+        <v>12866.08</v>
       </c>
       <c r="K9" t="n">
-        <v>12881.53</v>
+        <v>15592.36</v>
       </c>
       <c r="L9" t="n">
-        <v>12853.47</v>
+        <v>15625.62</v>
       </c>
       <c r="M9" t="n">
-        <v>12893.38</v>
+        <v>15632.26</v>
+      </c>
+      <c r="N9" t="n">
+        <v>15624.09</v>
+      </c>
+      <c r="O9" t="n">
+        <v>15624.1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>15626.81</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>15609.19</v>
+      </c>
+      <c r="R9" t="n">
+        <v>15622.44</v>
+      </c>
+      <c r="S9" t="n">
+        <v>15594.58</v>
+      </c>
+      <c r="T9" t="n">
+        <v>15544.4</v>
+      </c>
+      <c r="U9" t="n">
+        <v>15635.05</v>
+      </c>
+      <c r="V9" t="n">
+        <v>15620.19</v>
+      </c>
+      <c r="W9" t="n">
+        <v>15625.97</v>
+      </c>
+      <c r="X9" t="n">
+        <v>15611.41</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15609.07</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>15614.8</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>15621.31</v>
       </c>
     </row>
     <row r="10">
@@ -846,40 +1252,82 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>646692.49</v>
+        <v>647168.17</v>
       </c>
       <c r="C10" t="n">
-        <v>646095.37</v>
+        <v>647385.99</v>
       </c>
       <c r="D10" t="n">
-        <v>645145.4399999999</v>
+        <v>644864.8199999999</v>
       </c>
       <c r="E10" t="n">
-        <v>645392.1899999999</v>
+        <v>645176.34</v>
       </c>
       <c r="F10" t="n">
-        <v>646627.1800000001</v>
+        <v>648950.35</v>
       </c>
       <c r="G10" t="n">
-        <v>645967.61</v>
+        <v>649019.87</v>
       </c>
       <c r="H10" t="n">
-        <v>646210.8100000001</v>
+        <v>648111.39</v>
       </c>
       <c r="I10" t="n">
-        <v>646379.33</v>
+        <v>648199.6899999999</v>
       </c>
       <c r="J10" t="n">
-        <v>646297.29</v>
+        <v>648321.13</v>
       </c>
       <c r="K10" t="n">
-        <v>645239.6800000001</v>
+        <v>647299.65</v>
       </c>
       <c r="L10" t="n">
-        <v>644836.04</v>
+        <v>647762</v>
       </c>
       <c r="M10" t="n">
-        <v>647168.17</v>
+        <v>647506.59</v>
+      </c>
+      <c r="N10" t="n">
+        <v>649066.58</v>
+      </c>
+      <c r="O10" t="n">
+        <v>647555.01</v>
+      </c>
+      <c r="P10" t="n">
+        <v>649128.71</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>648601.79</v>
+      </c>
+      <c r="R10" t="n">
+        <v>648442.77</v>
+      </c>
+      <c r="S10" t="n">
+        <v>649310.02</v>
+      </c>
+      <c r="T10" t="n">
+        <v>644191.28</v>
+      </c>
+      <c r="U10" t="n">
+        <v>647355.12</v>
+      </c>
+      <c r="V10" t="n">
+        <v>648672.14</v>
+      </c>
+      <c r="W10" t="n">
+        <v>647876.33</v>
+      </c>
+      <c r="X10" t="n">
+        <v>610647.65</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>565213.71</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>566011.48</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>565094.36</v>
       </c>
     </row>
     <row r="11">
@@ -889,1168 +1337,2356 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9504.719999999999</v>
+        <v>1123.62</v>
       </c>
       <c r="C11" t="n">
-        <v>9488.530000000001</v>
+        <v>1124.89</v>
       </c>
       <c r="D11" t="n">
-        <v>9501.219999999999</v>
+        <v>1121.12</v>
       </c>
       <c r="E11" t="n">
-        <v>9515.66</v>
+        <v>1124.46</v>
       </c>
       <c r="F11" t="n">
-        <v>9474.629999999999</v>
+        <v>1122.81</v>
       </c>
       <c r="G11" t="n">
-        <v>9467.25</v>
+        <v>1125.54</v>
       </c>
       <c r="H11" t="n">
-        <v>9491.379999999999</v>
+        <v>1123.92</v>
       </c>
       <c r="I11" t="n">
-        <v>9479.07</v>
+        <v>1122.56</v>
       </c>
       <c r="J11" t="n">
-        <v>9458.91</v>
+        <v>1124.65</v>
       </c>
       <c r="K11" t="n">
-        <v>1124.04</v>
+        <v>1123.6</v>
       </c>
       <c r="L11" t="n">
-        <v>1122.98</v>
+        <v>5616.27</v>
       </c>
       <c r="M11" t="n">
-        <v>1123.62</v>
+        <v>5609.89</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5611.69</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1928.33</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1821.98</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1823.99</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1825.72</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1822.15</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1812.94</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1821.42</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1824.01</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1820.72</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1820.99</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1824.1</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1820.35</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1735.33</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>19996.28</v>
-      </c>
-      <c r="C12" t="n">
-        <v>20004.2</v>
-      </c>
-      <c r="D12" t="n">
-        <v>20003.86</v>
-      </c>
-      <c r="E12" t="n">
-        <v>20014.74</v>
-      </c>
-      <c r="F12" t="n">
-        <v>20012.6</v>
-      </c>
-      <c r="G12" t="n">
-        <v>19991.8</v>
-      </c>
-      <c r="H12" t="n">
-        <v>19988.13</v>
-      </c>
-      <c r="I12" t="n">
-        <v>20013.25</v>
-      </c>
-      <c r="J12" t="n">
-        <v>19986.79</v>
-      </c>
-      <c r="K12" t="n">
-        <v>20013.86</v>
-      </c>
-      <c r="L12" t="n">
-        <v>20007.12</v>
-      </c>
+          <t>Arpenta acciones</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>20009.25</v>
+        <v>180.65</v>
+      </c>
+      <c r="N12" t="n">
+        <v>178.35</v>
+      </c>
+      <c r="O12" t="n">
+        <v>180.63</v>
+      </c>
+      <c r="P12" t="n">
+        <v>179.07</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>179.98</v>
+      </c>
+      <c r="R12" t="n">
+        <v>181.05</v>
+      </c>
+      <c r="S12" t="n">
+        <v>182.21</v>
+      </c>
+      <c r="T12" t="n">
+        <v>178.33</v>
+      </c>
+      <c r="U12" t="n">
+        <v>179.23</v>
+      </c>
+      <c r="V12" t="n">
+        <v>181.49</v>
+      </c>
+      <c r="W12" t="n">
+        <v>179.77</v>
+      </c>
+      <c r="X12" t="n">
+        <v>177.36</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>177.48</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>179.03</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>182.26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>146514.67</v>
+        <v>20009.25</v>
       </c>
       <c r="C13" t="n">
-        <v>233548.68</v>
+        <v>19985.06</v>
       </c>
       <c r="D13" t="n">
-        <v>249581.55</v>
+        <v>19076.79</v>
       </c>
       <c r="E13" t="n">
-        <v>249647.53</v>
+        <v>19098.76</v>
       </c>
       <c r="F13" t="n">
-        <v>249547.88</v>
+        <v>19123.46</v>
       </c>
       <c r="G13" t="n">
-        <v>249324.46</v>
+        <v>19123.92</v>
       </c>
       <c r="H13" t="n">
-        <v>249598.68</v>
+        <v>19115.17</v>
       </c>
       <c r="I13" t="n">
-        <v>249447.38</v>
+        <v>19100.94</v>
       </c>
       <c r="J13" t="n">
-        <v>249585.11</v>
+        <v>19112.87</v>
       </c>
       <c r="K13" t="n">
-        <v>249279.03</v>
+        <v>19104.37</v>
       </c>
       <c r="L13" t="n">
-        <v>235710.03</v>
+        <v>19124.06</v>
       </c>
       <c r="M13" t="n">
-        <v>187231.71</v>
+        <v>13520.65</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13521.85</v>
+      </c>
+      <c r="O13" t="n">
+        <v>13531.21</v>
+      </c>
+      <c r="P13" t="n">
+        <v>13517.08</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>13523.36</v>
+      </c>
+      <c r="R13" t="n">
+        <v>13519.9</v>
+      </c>
+      <c r="S13" t="n">
+        <v>13532.18</v>
+      </c>
+      <c r="T13" t="n">
+        <v>13455.66</v>
+      </c>
+      <c r="U13" t="n">
+        <v>13515.62</v>
+      </c>
+      <c r="V13" t="n">
+        <v>13517.3</v>
+      </c>
+      <c r="W13" t="n">
+        <v>13521.75</v>
+      </c>
+      <c r="X13" t="n">
+        <v>13515.24</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>13522.3</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>15118.25</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>15130.79</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>187839.74</v>
+        <v>187231.71</v>
       </c>
       <c r="C14" t="n">
-        <v>187844.01</v>
+        <v>187368.9</v>
       </c>
       <c r="D14" t="n">
-        <v>187957.48</v>
+        <v>168817.97</v>
       </c>
       <c r="E14" t="n">
-        <v>187915.67</v>
+        <v>199223.39</v>
       </c>
       <c r="F14" t="n">
-        <v>187841.06</v>
+        <v>226698.26</v>
       </c>
       <c r="G14" t="n">
-        <v>187860.33</v>
+        <v>233972.54</v>
       </c>
       <c r="H14" t="n">
-        <v>187854.45</v>
+        <v>233850.38</v>
       </c>
       <c r="I14" t="n">
-        <v>187776.1</v>
+        <v>241792.98</v>
       </c>
       <c r="J14" t="n">
-        <v>187931.61</v>
+        <v>243943.48</v>
       </c>
       <c r="K14" t="n">
-        <v>187777.77</v>
+        <v>243996.25</v>
       </c>
       <c r="L14" t="n">
-        <v>187933.29</v>
+        <v>249345.93</v>
       </c>
       <c r="M14" t="n">
-        <v>187830.66</v>
+        <v>264624.81</v>
+      </c>
+      <c r="N14" t="n">
+        <v>269780.85</v>
+      </c>
+      <c r="O14" t="n">
+        <v>270017.47</v>
+      </c>
+      <c r="P14" t="n">
+        <v>290684.25</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>310186.9</v>
+      </c>
+      <c r="R14" t="n">
+        <v>315785.91</v>
+      </c>
+      <c r="S14" t="n">
+        <v>315646.51</v>
+      </c>
+      <c r="T14" t="n">
+        <v>262120.66</v>
+      </c>
+      <c r="U14" t="n">
+        <v>251802.86</v>
+      </c>
+      <c r="V14" t="n">
+        <v>259176.75</v>
+      </c>
+      <c r="W14" t="n">
+        <v>269936.58</v>
+      </c>
+      <c r="X14" t="n">
+        <v>269407.92</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>269199.68</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>279457.89</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>296014.48</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>731281.3</v>
+        <v>187830.66</v>
       </c>
       <c r="C15" t="n">
-        <v>729452.8199999999</v>
+        <v>187840.9</v>
       </c>
       <c r="D15" t="n">
-        <v>728300.92</v>
+        <v>187358.28</v>
       </c>
       <c r="E15" t="n">
-        <v>725938.38</v>
+        <v>187907.41</v>
       </c>
       <c r="F15" t="n">
-        <v>725563.4399999999</v>
+        <v>187849.11</v>
       </c>
       <c r="G15" t="n">
-        <v>726151.83</v>
+        <v>187901.96</v>
       </c>
       <c r="H15" t="n">
-        <v>722991.84</v>
+        <v>187851.6</v>
       </c>
       <c r="I15" t="n">
-        <v>712931.05</v>
+        <v>187897.6</v>
       </c>
       <c r="J15" t="n">
-        <v>708925.72</v>
+        <v>187950.11</v>
       </c>
       <c r="K15" t="n">
-        <v>702841.89</v>
+        <v>188048.02</v>
       </c>
       <c r="L15" t="n">
-        <v>700336.7</v>
+        <v>187828</v>
       </c>
       <c r="M15" t="n">
-        <v>689854.33</v>
+        <v>187811.66</v>
+      </c>
+      <c r="N15" t="n">
+        <v>187800.33</v>
+      </c>
+      <c r="O15" t="n">
+        <v>182641.04</v>
+      </c>
+      <c r="P15" t="n">
+        <v>178491.26</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>178414.68</v>
+      </c>
+      <c r="R15" t="n">
+        <v>187662.07</v>
+      </c>
+      <c r="S15" t="n">
+        <v>197604.96</v>
+      </c>
+      <c r="T15" t="n">
+        <v>196676.24</v>
+      </c>
+      <c r="U15" t="n">
+        <v>201777.68</v>
+      </c>
+      <c r="V15" t="n">
+        <v>201632.78</v>
+      </c>
+      <c r="W15" t="n">
+        <v>201567.15</v>
+      </c>
+      <c r="X15" t="n">
+        <v>201544.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>201698.96</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>188183.61</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>172041.94</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
+          <t>Compass Crecimiento</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>689854.33</v>
+      </c>
+      <c r="C16" t="n">
+        <v>685028.29</v>
+      </c>
       <c r="D16" t="n">
-        <v>268603.3</v>
+        <v>677144.14</v>
       </c>
       <c r="E16" t="n">
-        <v>273974.04</v>
+        <v>674013.08</v>
       </c>
       <c r="F16" t="n">
-        <v>273821.92</v>
+        <v>670246.17</v>
       </c>
       <c r="G16" t="n">
-        <v>292560.64</v>
+        <v>666911.03</v>
       </c>
       <c r="H16" t="n">
-        <v>292659.37</v>
+        <v>666534.92</v>
       </c>
       <c r="I16" t="n">
-        <v>292512.81</v>
+        <v>672341.79</v>
       </c>
       <c r="J16" t="n">
-        <v>276136.96</v>
+        <v>670783.46</v>
       </c>
       <c r="K16" t="n">
-        <v>276084.16</v>
+        <v>672442.67</v>
       </c>
       <c r="L16" t="n">
-        <v>276044.3</v>
+        <v>671712.04</v>
       </c>
       <c r="M16" t="n">
-        <v>275457.59</v>
+        <v>672278.39</v>
+      </c>
+      <c r="N16" t="n">
+        <v>671796.8199999999</v>
+      </c>
+      <c r="O16" t="n">
+        <v>671623.85</v>
+      </c>
+      <c r="P16" t="n">
+        <v>671678.27</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>671675.83</v>
+      </c>
+      <c r="R16" t="n">
+        <v>671288.95</v>
+      </c>
+      <c r="S16" t="n">
+        <v>671900.9399999999</v>
+      </c>
+      <c r="T16" t="n">
+        <v>669057.8100000001</v>
+      </c>
+      <c r="U16" t="n">
+        <v>667601.09</v>
+      </c>
+      <c r="V16" t="n">
+        <v>666996.83</v>
+      </c>
+      <c r="W16" t="n">
+        <v>667629.55</v>
+      </c>
+      <c r="X16" t="n">
+        <v>660364.64</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>660015.59</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>659544.1899999999</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>660534.6800000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>10230.37</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
+        <v>275457.59</v>
+      </c>
+      <c r="C17" t="n">
+        <v>276023.84</v>
+      </c>
       <c r="D17" t="n">
-        <v>10198.72</v>
+        <v>275441.9</v>
       </c>
       <c r="E17" t="n">
-        <v>10094.93</v>
+        <v>291315.43</v>
       </c>
       <c r="F17" t="n">
-        <v>9992.700000000001</v>
+        <v>290490.95</v>
       </c>
       <c r="G17" t="n">
-        <v>10001.41</v>
+        <v>260745.92</v>
       </c>
       <c r="H17" t="n">
-        <v>9940.440000000001</v>
+        <v>260948.76</v>
       </c>
       <c r="I17" t="n">
-        <v>10018.79</v>
+        <v>260101.8</v>
       </c>
       <c r="J17" t="n">
-        <v>9871.870000000001</v>
+        <v>260513.25</v>
       </c>
       <c r="K17" t="n">
-        <v>9791.950000000001</v>
+        <v>260440.5</v>
       </c>
       <c r="L17" t="n">
-        <v>10121.12</v>
+        <v>276230.92</v>
       </c>
       <c r="M17" t="n">
-        <v>9929.1</v>
+        <v>276338.4</v>
+      </c>
+      <c r="N17" t="n">
+        <v>276034.04</v>
+      </c>
+      <c r="O17" t="n">
+        <v>275584.34</v>
+      </c>
+      <c r="P17" t="n">
+        <v>275952.5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>275553.29</v>
+      </c>
+      <c r="R17" t="n">
+        <v>275930.86</v>
+      </c>
+      <c r="S17" t="n">
+        <v>396850.41</v>
+      </c>
+      <c r="T17" t="n">
+        <v>394432.53</v>
+      </c>
+      <c r="U17" t="n">
+        <v>396418.98</v>
+      </c>
+      <c r="V17" t="n">
+        <v>396820.21</v>
+      </c>
+      <c r="W17" t="n">
+        <v>396950.69</v>
+      </c>
+      <c r="X17" t="n">
+        <v>396609.62</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>397012.94</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>467500.7</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>466657.62</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>42544.86</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
+        <v>9929.1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>10230.13</v>
+      </c>
       <c r="D18" t="n">
-        <v>42453.02</v>
+        <v>9797.309999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>42474.68</v>
+        <v>9821.610000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>42498.57</v>
+        <v>10051.74</v>
       </c>
       <c r="G18" t="n">
-        <v>42411.72</v>
+        <v>40369.83</v>
       </c>
       <c r="H18" t="n">
-        <v>42443.25</v>
+        <v>40410.79</v>
       </c>
       <c r="I18" t="n">
-        <v>42528.97</v>
+        <v>40288.05</v>
       </c>
       <c r="J18" t="n">
-        <v>42428.78</v>
+        <v>40298.22</v>
       </c>
       <c r="K18" t="n">
-        <v>42406.12</v>
+        <v>40703.07</v>
       </c>
       <c r="L18" t="n">
-        <v>42533.92</v>
+        <v>40385.33</v>
       </c>
       <c r="M18" t="n">
-        <v>42488.67</v>
+        <v>40679.55</v>
+      </c>
+      <c r="N18" t="n">
+        <v>40474.7</v>
+      </c>
+      <c r="O18" t="n">
+        <v>40699.62</v>
+      </c>
+      <c r="P18" t="n">
+        <v>40492.59</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>40364.34</v>
+      </c>
+      <c r="R18" t="n">
+        <v>40426.29</v>
+      </c>
+      <c r="S18" t="n">
+        <v>124982.23</v>
+      </c>
+      <c r="T18" t="n">
+        <v>124098.54</v>
+      </c>
+      <c r="U18" t="n">
+        <v>149478.22</v>
+      </c>
+      <c r="V18" t="n">
+        <v>149399.02</v>
+      </c>
+      <c r="W18" t="n">
+        <v>149416.25</v>
+      </c>
+      <c r="X18" t="n">
+        <v>149455.57</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>149453.73</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>182491.88</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>182452.65</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>277593.58</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
+        <v>42488.67</v>
+      </c>
+      <c r="C19" t="n">
+        <v>42441.23</v>
+      </c>
       <c r="D19" t="n">
-        <v>272693.31</v>
+        <v>42355.05</v>
       </c>
       <c r="E19" t="n">
-        <v>267434.39</v>
+        <v>42405.08</v>
       </c>
       <c r="F19" t="n">
-        <v>262468.55</v>
+        <v>42534.2</v>
       </c>
       <c r="G19" t="n">
-        <v>262605.11</v>
+        <v>42484.9</v>
       </c>
       <c r="H19" t="n">
-        <v>262504.47</v>
+        <v>42537.97</v>
       </c>
       <c r="I19" t="n">
-        <v>262471.08</v>
+        <v>42561.2</v>
       </c>
       <c r="J19" t="n">
-        <v>262214.45</v>
+        <v>42470.64</v>
       </c>
       <c r="K19" t="n">
-        <v>262438.83</v>
+        <v>42444.99</v>
       </c>
       <c r="L19" t="n">
-        <v>262337.95</v>
+        <v>42513.83</v>
       </c>
       <c r="M19" t="n">
-        <v>262880.39</v>
+        <v>42458.06</v>
+      </c>
+      <c r="N19" t="n">
+        <v>42478.45</v>
+      </c>
+      <c r="O19" t="n">
+        <v>42410.25</v>
+      </c>
+      <c r="P19" t="n">
+        <v>42495.66</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>42479.33</v>
+      </c>
+      <c r="R19" t="n">
+        <v>42441.81</v>
+      </c>
+      <c r="S19" t="n">
+        <v>42472.53</v>
+      </c>
+      <c r="T19" t="n">
+        <v>42393.31</v>
+      </c>
+      <c r="U19" t="n">
+        <v>42479.65</v>
+      </c>
+      <c r="V19" t="n">
+        <v>42443.88</v>
+      </c>
+      <c r="W19" t="n">
+        <v>42561.41</v>
+      </c>
+      <c r="X19" t="n">
+        <v>42556.3</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>31626.48</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>31569.53</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>31682.25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>25359.32</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
+        <v>262880.39</v>
+      </c>
+      <c r="C20" t="n">
+        <v>262578.31</v>
+      </c>
       <c r="D20" t="n">
-        <v>24954.68</v>
+        <v>261580.19</v>
       </c>
       <c r="E20" t="n">
-        <v>24559.13</v>
+        <v>262747.81</v>
       </c>
       <c r="F20" t="n">
-        <v>24671.48</v>
+        <v>262674.03</v>
       </c>
       <c r="G20" t="n">
-        <v>24715.97</v>
+        <v>233071.96</v>
       </c>
       <c r="H20" t="n">
-        <v>25232.57</v>
+        <v>233485.48</v>
       </c>
       <c r="I20" t="n">
-        <v>25374.64</v>
+        <v>233616.97</v>
       </c>
       <c r="J20" t="n">
-        <v>24607.69</v>
+        <v>233615.3</v>
       </c>
       <c r="K20" t="n">
-        <v>25170.31</v>
+        <v>233695.58</v>
       </c>
       <c r="L20" t="n">
-        <v>24583.31</v>
+        <v>233058.6</v>
       </c>
       <c r="M20" t="n">
-        <v>24999.59</v>
+        <v>233283.89</v>
+      </c>
+      <c r="N20" t="n">
+        <v>233503.86</v>
+      </c>
+      <c r="O20" t="n">
+        <v>233124.81</v>
+      </c>
+      <c r="P20" t="n">
+        <v>233759.94</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>233572.28</v>
+      </c>
+      <c r="R20" t="n">
+        <v>233708.28</v>
+      </c>
+      <c r="S20" t="n">
+        <v>233770.82</v>
+      </c>
+      <c r="T20" t="n">
+        <v>233057.82</v>
+      </c>
+      <c r="U20" t="n">
+        <v>233273.93</v>
+      </c>
+      <c r="V20" t="n">
+        <v>208833.73</v>
+      </c>
+      <c r="W20" t="n">
+        <v>209080.1</v>
+      </c>
+      <c r="X20" t="n">
+        <v>209069.24</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>208738.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>209037.29</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>209719.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>184135.65</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
+        <v>24999.59</v>
+      </c>
+      <c r="C21" t="n">
+        <v>24641.55</v>
+      </c>
       <c r="D21" t="n">
-        <v>172373.97</v>
+        <v>24991.41</v>
       </c>
       <c r="E21" t="n">
-        <v>203121.54</v>
+        <v>24895.02</v>
       </c>
       <c r="F21" t="n">
-        <v>203763.74</v>
+        <v>25100.13</v>
       </c>
       <c r="G21" t="n">
-        <v>205312.14</v>
+        <v>25107.4</v>
       </c>
       <c r="H21" t="n">
-        <v>205315.59</v>
+        <v>24732.19</v>
       </c>
       <c r="I21" t="n">
-        <v>203000.45</v>
+        <v>25240.66</v>
       </c>
       <c r="J21" t="n">
-        <v>203177.37</v>
+        <v>25183.43</v>
       </c>
       <c r="K21" t="n">
-        <v>203068.91</v>
+        <v>24816.42</v>
       </c>
       <c r="L21" t="n">
-        <v>185622.56</v>
+        <v>24774.18</v>
       </c>
       <c r="M21" t="n">
-        <v>181670.27</v>
+        <v>25323.04</v>
+      </c>
+      <c r="N21" t="n">
+        <v>20223.62</v>
+      </c>
+      <c r="O21" t="n">
+        <v>19814.55</v>
+      </c>
+      <c r="P21" t="n">
+        <v>20047.51</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>20071.12</v>
+      </c>
+      <c r="R21" t="n">
+        <v>20297.57</v>
+      </c>
+      <c r="S21" t="n">
+        <v>20008.11</v>
+      </c>
+      <c r="T21" t="n">
+        <v>19946.31</v>
+      </c>
+      <c r="U21" t="n">
+        <v>20138.67</v>
+      </c>
+      <c r="V21" t="n">
+        <v>20048.67</v>
+      </c>
+      <c r="W21" t="n">
+        <v>20290.23</v>
+      </c>
+      <c r="X21" t="n">
+        <v>19792.07</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>19711.4</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>20142.52</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>20281.83</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>219846.69</v>
+        <v>181670.27</v>
       </c>
       <c r="C22" t="n">
-        <v>230285.08</v>
+        <v>180927.59</v>
       </c>
       <c r="D22" t="n">
-        <v>231924.27</v>
+        <v>178187.04</v>
       </c>
       <c r="E22" t="n">
-        <v>235363.3</v>
+        <v>174938.23</v>
       </c>
       <c r="F22" t="n">
-        <v>236381.23</v>
+        <v>182106.69</v>
       </c>
       <c r="G22" t="n">
-        <v>246659.24</v>
+        <v>191744.64</v>
       </c>
       <c r="H22" t="n">
-        <v>246848.7</v>
+        <v>190875.99</v>
       </c>
       <c r="I22" t="n">
-        <v>246786.54</v>
+        <v>196237.84</v>
       </c>
       <c r="J22" t="n">
-        <v>266989.25</v>
+        <v>209905.31</v>
       </c>
       <c r="K22" t="n">
-        <v>266530.6</v>
+        <v>219424.05</v>
       </c>
       <c r="L22" t="n">
-        <v>256925.9</v>
+        <v>262424.38</v>
       </c>
       <c r="M22" t="n">
-        <v>256446.46</v>
+        <v>340364.48</v>
+      </c>
+      <c r="N22" t="n">
+        <v>383772.97</v>
+      </c>
+      <c r="O22" t="n">
+        <v>414907.69</v>
+      </c>
+      <c r="P22" t="n">
+        <v>421835.08</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>447833.75</v>
+      </c>
+      <c r="R22" t="n">
+        <v>461645.88</v>
+      </c>
+      <c r="S22" t="n">
+        <v>462048.34</v>
+      </c>
+      <c r="T22" t="n">
+        <v>461821.1</v>
+      </c>
+      <c r="U22" t="n">
+        <v>441185.24</v>
+      </c>
+      <c r="V22" t="n">
+        <v>459098.1</v>
+      </c>
+      <c r="W22" t="n">
+        <v>464284.32</v>
+      </c>
+      <c r="X22" t="n">
+        <v>470622.63</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>443076.55</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>457595.97</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>428849.63</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Gainvest Renta Variable</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>54382.44</v>
+        <v>256446.46</v>
       </c>
       <c r="C23" t="n">
-        <v>54419.07</v>
+        <v>248753.61</v>
       </c>
       <c r="D23" t="n">
-        <v>54226.45</v>
+        <v>247856.38</v>
       </c>
       <c r="E23" t="n">
-        <v>54261.86</v>
+        <v>308919.93</v>
       </c>
       <c r="F23" t="n">
-        <v>54316.25</v>
+        <v>312521.15</v>
       </c>
       <c r="G23" t="n">
-        <v>54363.02</v>
+        <v>291943.44</v>
       </c>
       <c r="H23" t="n">
-        <v>54273.79</v>
+        <v>291537.79</v>
       </c>
       <c r="I23" t="n">
-        <v>54236.53</v>
+        <v>300473.85</v>
       </c>
       <c r="J23" t="n">
-        <v>54352.14</v>
+        <v>305038.16</v>
       </c>
       <c r="K23" t="n">
-        <v>54258.32</v>
+        <v>304488.4</v>
       </c>
       <c r="L23" t="n">
-        <v>54238.21</v>
+        <v>360038.43</v>
       </c>
       <c r="M23" t="n">
-        <v>54331.66</v>
+        <v>409673.96</v>
+      </c>
+      <c r="N23" t="n">
+        <v>421937.42</v>
+      </c>
+      <c r="O23" t="n">
+        <v>414507.03</v>
+      </c>
+      <c r="P23" t="n">
+        <v>417429.32</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>424023.23</v>
+      </c>
+      <c r="R23" t="n">
+        <v>439004.53</v>
+      </c>
+      <c r="S23" t="n">
+        <v>383836.14</v>
+      </c>
+      <c r="T23" t="n">
+        <v>386473.94</v>
+      </c>
+      <c r="U23" t="n">
+        <v>386407.99</v>
+      </c>
+      <c r="V23" t="n">
+        <v>351273.9</v>
+      </c>
+      <c r="W23" t="n">
+        <v>366158.36</v>
+      </c>
+      <c r="X23" t="n">
+        <v>375584.56</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>364891.02</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>371844.2</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>366385.36</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>23186.18</v>
+        <v>54331.66</v>
       </c>
       <c r="C24" t="n">
-        <v>23208.67</v>
+        <v>54308.52</v>
       </c>
       <c r="D24" t="n">
-        <v>23198.2</v>
+        <v>54194.87</v>
       </c>
       <c r="E24" t="n">
-        <v>23184.78</v>
+        <v>54354.17</v>
       </c>
       <c r="F24" t="n">
-        <v>23175.93</v>
+        <v>54314.4</v>
       </c>
       <c r="G24" t="n">
-        <v>23152.54</v>
+        <v>54365.21</v>
       </c>
       <c r="H24" t="n">
-        <v>23219.38</v>
+        <v>54224.85</v>
       </c>
       <c r="I24" t="n">
-        <v>23180.24</v>
+        <v>54403.55</v>
       </c>
       <c r="J24" t="n">
-        <v>23209.7</v>
+        <v>54344.25</v>
       </c>
       <c r="K24" t="n">
-        <v>23152.03</v>
+        <v>54265.95</v>
       </c>
       <c r="L24" t="n">
-        <v>23163.49</v>
+        <v>54368.21</v>
       </c>
       <c r="M24" t="n">
-        <v>23198.2</v>
+        <v>54330.46</v>
+      </c>
+      <c r="N24" t="n">
+        <v>54386.68</v>
+      </c>
+      <c r="O24" t="n">
+        <v>54388.45</v>
+      </c>
+      <c r="P24" t="n">
+        <v>54403.06</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>54343.96</v>
+      </c>
+      <c r="R24" t="n">
+        <v>54374.75</v>
+      </c>
+      <c r="S24" t="n">
+        <v>54355.41</v>
+      </c>
+      <c r="T24" t="n">
+        <v>54422.05</v>
+      </c>
+      <c r="U24" t="n">
+        <v>54241.73</v>
+      </c>
+      <c r="V24" t="n">
+        <v>54413.25</v>
+      </c>
+      <c r="W24" t="n">
+        <v>54269.25</v>
+      </c>
+      <c r="X24" t="n">
+        <v>54409.54</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>54291.2</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>54379.57</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>54200.22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5375.02</v>
+        <v>23198.2</v>
       </c>
       <c r="C25" t="n">
-        <v>5374.26</v>
+        <v>23201.73</v>
       </c>
       <c r="D25" t="n">
-        <v>5360.83</v>
+        <v>23084.91</v>
       </c>
       <c r="E25" t="n">
-        <v>5360.13</v>
+        <v>23171.63</v>
       </c>
       <c r="F25" t="n">
-        <v>5378.22</v>
+        <v>23181.23</v>
       </c>
       <c r="G25" t="n">
-        <v>5358.03</v>
+        <v>23192.95</v>
       </c>
       <c r="H25" t="n">
-        <v>5376.63</v>
+        <v>23161.02</v>
       </c>
       <c r="I25" t="n">
-        <v>5365.62</v>
+        <v>23137.59</v>
       </c>
       <c r="J25" t="n">
-        <v>5377.83</v>
+        <v>23228.72</v>
       </c>
       <c r="K25" t="n">
-        <v>5366.6</v>
+        <v>23164.47</v>
       </c>
       <c r="L25" t="n">
-        <v>5380.57</v>
+        <v>23153.6</v>
       </c>
       <c r="M25" t="n">
-        <v>5375.99</v>
+        <v>23157.06</v>
+      </c>
+      <c r="N25" t="n">
+        <v>23156.41</v>
+      </c>
+      <c r="O25" t="n">
+        <v>23201.96</v>
+      </c>
+      <c r="P25" t="n">
+        <v>31136.92</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>31133.64</v>
+      </c>
+      <c r="R25" t="n">
+        <v>31180.59</v>
+      </c>
+      <c r="S25" t="n">
+        <v>31164.58</v>
+      </c>
+      <c r="T25" t="n">
+        <v>31172.24</v>
+      </c>
+      <c r="U25" t="n">
+        <v>31145.74</v>
+      </c>
+      <c r="V25" t="n">
+        <v>31239.43</v>
+      </c>
+      <c r="W25" t="n">
+        <v>31186.47</v>
+      </c>
+      <c r="X25" t="n">
+        <v>31185.92</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>31245.58</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>31191.37</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>31144.1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>95060.08</v>
+        <v>5375.99</v>
       </c>
       <c r="C26" t="n">
-        <v>95107.03999999999</v>
+        <v>5370.42</v>
       </c>
       <c r="D26" t="n">
-        <v>95166.96000000001</v>
+        <v>5359.24</v>
       </c>
       <c r="E26" t="n">
-        <v>95027.42</v>
+        <v>5361.8</v>
       </c>
       <c r="F26" t="n">
-        <v>85025.46000000001</v>
+        <v>5363.38</v>
       </c>
       <c r="G26" t="n">
-        <v>79948.85000000001</v>
+        <v>5373.86</v>
       </c>
       <c r="H26" t="n">
-        <v>75157.03</v>
+        <v>5374.17</v>
       </c>
       <c r="I26" t="n">
-        <v>65180.74</v>
+        <v>5360.89</v>
       </c>
       <c r="J26" t="n">
-        <v>65142.51</v>
+        <v>5359.38</v>
       </c>
       <c r="K26" t="n">
-        <v>62978.75</v>
+        <v>5384.15</v>
       </c>
       <c r="L26" t="n">
-        <v>58159.18</v>
+        <v>5368.33</v>
       </c>
       <c r="M26" t="n">
-        <v>58100.9</v>
+        <v>5375.65</v>
+      </c>
+      <c r="N26" t="n">
+        <v>5362.09</v>
+      </c>
+      <c r="O26" t="n">
+        <v>5377.25</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5373.03</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5383.25</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5357.51</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5368.07</v>
+      </c>
+      <c r="T26" t="n">
+        <v>5362.78</v>
+      </c>
+      <c r="U26" t="n">
+        <v>5379.29</v>
+      </c>
+      <c r="V26" t="n">
+        <v>5367.71</v>
+      </c>
+      <c r="W26" t="n">
+        <v>5381.02</v>
+      </c>
+      <c r="X26" t="n">
+        <v>5357.61</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>5364.52</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>5368</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>5381.05</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>102176.73</v>
+        <v>58100.9</v>
       </c>
       <c r="C27" t="n">
-        <v>112199.76</v>
+        <v>58070.54</v>
       </c>
       <c r="D27" t="n">
-        <v>91858.87</v>
+        <v>57897.87</v>
       </c>
       <c r="E27" t="n">
-        <v>91987.56</v>
+        <v>58111.96</v>
       </c>
       <c r="F27" t="n">
-        <v>91895.23</v>
+        <v>58112.94</v>
       </c>
       <c r="G27" t="n">
-        <v>92056.25999999999</v>
+        <v>53136.51</v>
       </c>
       <c r="H27" t="n">
-        <v>106978</v>
+        <v>53063.67</v>
       </c>
       <c r="I27" t="n">
-        <v>107111.79</v>
+        <v>53030.03</v>
       </c>
       <c r="J27" t="n">
-        <v>107022.83</v>
+        <v>52966.57</v>
       </c>
       <c r="K27" t="n">
-        <v>106931.17</v>
+        <v>53075.41</v>
       </c>
       <c r="L27" t="n">
-        <v>102082.11</v>
+        <v>52980.45</v>
       </c>
       <c r="M27" t="n">
-        <v>101935.18</v>
+        <v>62948.04</v>
+      </c>
+      <c r="N27" t="n">
+        <v>63084.83</v>
+      </c>
+      <c r="O27" t="n">
+        <v>62957.11</v>
+      </c>
+      <c r="P27" t="n">
+        <v>63006.35</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>63161.7</v>
+      </c>
+      <c r="R27" t="n">
+        <v>63056.87</v>
+      </c>
+      <c r="S27" t="n">
+        <v>63032.62</v>
+      </c>
+      <c r="T27" t="n">
+        <v>62987.62</v>
+      </c>
+      <c r="U27" t="n">
+        <v>63008.8</v>
+      </c>
+      <c r="V27" t="n">
+        <v>63037</v>
+      </c>
+      <c r="W27" t="n">
+        <v>73181.56</v>
+      </c>
+      <c r="X27" t="n">
+        <v>83085.23</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>83093.23</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>83054.3</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>83158.92999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>30650.72</v>
+        <v>101935.18</v>
       </c>
       <c r="C28" t="n">
-        <v>32094.72</v>
+        <v>102091.15</v>
       </c>
       <c r="D28" t="n">
-        <v>41202.07</v>
+        <v>101788.7</v>
       </c>
       <c r="E28" t="n">
-        <v>43171.36</v>
+        <v>101954.4</v>
       </c>
       <c r="F28" t="n">
-        <v>42770.57</v>
+        <v>102055.57</v>
       </c>
       <c r="G28" t="n">
-        <v>42691.22</v>
+        <v>106780.77</v>
       </c>
       <c r="H28" t="n">
-        <v>50844.21</v>
+        <v>106847.24</v>
       </c>
       <c r="I28" t="n">
-        <v>50819.16</v>
+        <v>106920.59</v>
       </c>
       <c r="J28" t="n">
-        <v>50822.04</v>
+        <v>107040.77</v>
       </c>
       <c r="K28" t="n">
-        <v>50800.44</v>
+        <v>107158.83</v>
       </c>
       <c r="L28" t="n">
-        <v>50457.23</v>
+        <v>106980.62</v>
       </c>
       <c r="M28" t="n">
-        <v>44484.74</v>
+        <v>107006.59</v>
+      </c>
+      <c r="N28" t="n">
+        <v>117091.98</v>
+      </c>
+      <c r="O28" t="n">
+        <v>116745.33</v>
+      </c>
+      <c r="P28" t="n">
+        <v>122083.54</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>121949.58</v>
+      </c>
+      <c r="R28" t="n">
+        <v>121976.08</v>
+      </c>
+      <c r="S28" t="n">
+        <v>131841.56</v>
+      </c>
+      <c r="T28" t="n">
+        <v>131975.5</v>
+      </c>
+      <c r="U28" t="n">
+        <v>132175.12</v>
+      </c>
+      <c r="V28" t="n">
+        <v>131917.87</v>
+      </c>
+      <c r="W28" t="n">
+        <v>131796.16</v>
+      </c>
+      <c r="X28" t="n">
+        <v>131766.36</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>126935.11</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>126729.5</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>116942.94</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3618.11</v>
+        <v>44484.74</v>
       </c>
       <c r="C29" t="n">
-        <v>3617.28</v>
+        <v>44444.54</v>
       </c>
       <c r="D29" t="n">
-        <v>4121.17</v>
+        <v>43073.39</v>
       </c>
       <c r="E29" t="n">
-        <v>4129.98</v>
+        <v>42769.44</v>
       </c>
       <c r="F29" t="n">
-        <v>4116.1</v>
+        <v>43500.14</v>
       </c>
       <c r="G29" t="n">
-        <v>4122.01</v>
+        <v>46130.76</v>
       </c>
       <c r="H29" t="n">
-        <v>4126.83</v>
+        <v>47592.15</v>
       </c>
       <c r="I29" t="n">
-        <v>4126.4</v>
+        <v>49228.41</v>
       </c>
       <c r="J29" t="n">
-        <v>4127.96</v>
+        <v>50048.22</v>
       </c>
       <c r="K29" t="n">
-        <v>4131.2</v>
+        <v>52465.72</v>
       </c>
       <c r="L29" t="n">
-        <v>4122.88</v>
+        <v>52604.65</v>
       </c>
       <c r="M29" t="n">
-        <v>4125.76</v>
+        <v>61092.5</v>
+      </c>
+      <c r="N29" t="n">
+        <v>61112.35</v>
+      </c>
+      <c r="O29" t="n">
+        <v>62677.71</v>
+      </c>
+      <c r="P29" t="n">
+        <v>64206.61</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>64082.19</v>
+      </c>
+      <c r="R29" t="n">
+        <v>64167.34</v>
+      </c>
+      <c r="S29" t="n">
+        <v>64169.41</v>
+      </c>
+      <c r="T29" t="n">
+        <v>55752.65</v>
+      </c>
+      <c r="U29" t="n">
+        <v>48652.39</v>
+      </c>
+      <c r="V29" t="n">
+        <v>47725.72</v>
+      </c>
+      <c r="W29" t="n">
+        <v>46529.99</v>
+      </c>
+      <c r="X29" t="n">
+        <v>48419.45</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>38712.47</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>42479.03</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>42452.22</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>37116.79</v>
+        <v>4125.76</v>
       </c>
       <c r="C30" t="n">
-        <v>41361.28</v>
+        <v>3860.95</v>
       </c>
       <c r="D30" t="n">
-        <v>41360.04</v>
+        <v>3860.26</v>
       </c>
       <c r="E30" t="n">
-        <v>46755.1</v>
+        <v>3858.62</v>
       </c>
       <c r="F30" t="n">
-        <v>44936.9</v>
+        <v>3862.07</v>
       </c>
       <c r="G30" t="n">
-        <v>44997.33</v>
+        <v>3862.95</v>
       </c>
       <c r="H30" t="n">
-        <v>45008.59</v>
+        <v>3869.81</v>
       </c>
       <c r="I30" t="n">
-        <v>44948.81</v>
+        <v>3861.07</v>
       </c>
       <c r="J30" t="n">
-        <v>45035.13</v>
+        <v>3871.97</v>
       </c>
       <c r="K30" t="n">
-        <v>41998.55</v>
+        <v>3869.03</v>
       </c>
       <c r="L30" t="n">
-        <v>40286.43</v>
+        <v>3857.18</v>
       </c>
       <c r="M30" t="n">
-        <v>40156.69</v>
+        <v>3862.15</v>
+      </c>
+      <c r="N30" t="n">
+        <v>3862.25</v>
+      </c>
+      <c r="O30" t="n">
+        <v>3862.63</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3860.56</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3869.12</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3863.59</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3858.46</v>
+      </c>
+      <c r="T30" t="n">
+        <v>3851.48</v>
+      </c>
+      <c r="U30" t="n">
+        <v>3863.75</v>
+      </c>
+      <c r="V30" t="n">
+        <v>3858.2</v>
+      </c>
+      <c r="W30" t="n">
+        <v>3858.09</v>
+      </c>
+      <c r="X30" t="n">
+        <v>3649.73</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>3643.34</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>3655.9</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>3649.8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>16184.43</v>
+        <v>40156.69</v>
       </c>
       <c r="C31" t="n">
-        <v>16218.33</v>
+        <v>40044.17</v>
       </c>
       <c r="D31" t="n">
-        <v>16188.9</v>
+        <v>39959.2</v>
       </c>
       <c r="E31" t="n">
-        <v>16187.36</v>
+        <v>40077.77</v>
       </c>
       <c r="F31" t="n">
-        <v>16190.75</v>
+        <v>41606.4</v>
       </c>
       <c r="G31" t="n">
-        <v>16241.51</v>
+        <v>44134.59</v>
       </c>
       <c r="H31" t="n">
-        <v>16177.78</v>
+        <v>44063.31</v>
       </c>
       <c r="I31" t="n">
-        <v>16218.46</v>
+        <v>44098.73</v>
       </c>
       <c r="J31" t="n">
-        <v>16242.61</v>
+        <v>44144.3</v>
       </c>
       <c r="K31" t="n">
-        <v>16173.44</v>
+        <v>44065.83</v>
       </c>
       <c r="L31" t="n">
-        <v>16240.68</v>
+        <v>45422.19</v>
       </c>
       <c r="M31" t="n">
-        <v>16254.08</v>
+        <v>50054.8</v>
+      </c>
+      <c r="N31" t="n">
+        <v>45032.01</v>
+      </c>
+      <c r="O31" t="n">
+        <v>44934.92</v>
+      </c>
+      <c r="P31" t="n">
+        <v>45036.91</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>53945.14</v>
+      </c>
+      <c r="R31" t="n">
+        <v>53945.47</v>
+      </c>
+      <c r="S31" t="n">
+        <v>61113.74</v>
+      </c>
+      <c r="T31" t="n">
+        <v>61128.23</v>
+      </c>
+      <c r="U31" t="n">
+        <v>58254.95</v>
+      </c>
+      <c r="V31" t="n">
+        <v>58207.9</v>
+      </c>
+      <c r="W31" t="n">
+        <v>60426.28</v>
+      </c>
+      <c r="X31" t="n">
+        <v>60377.06</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>57918.05</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>56253.37</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>57069.63</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>26248.2</v>
+        <v>16254.08</v>
       </c>
       <c r="C32" t="n">
-        <v>26182.15</v>
+        <v>16229.21</v>
       </c>
       <c r="D32" t="n">
-        <v>15864.27</v>
+        <v>16222.68</v>
       </c>
       <c r="E32" t="n">
-        <v>18706.77</v>
+        <v>29188.48</v>
       </c>
       <c r="F32" t="n">
-        <v>22087.75</v>
+        <v>29252.13</v>
       </c>
       <c r="G32" t="n">
-        <v>22123.74</v>
+        <v>29225.31</v>
       </c>
       <c r="H32" t="n">
-        <v>22115.92</v>
+        <v>29272.89</v>
       </c>
       <c r="I32" t="n">
-        <v>22087.19</v>
+        <v>29172.27</v>
       </c>
       <c r="J32" t="n">
-        <v>22103.25</v>
+        <v>29232.87</v>
       </c>
       <c r="K32" t="n">
-        <v>22068.23</v>
+        <v>29214.2</v>
       </c>
       <c r="L32" t="n">
-        <v>22100.36</v>
+        <v>29182.24</v>
       </c>
       <c r="M32" t="n">
-        <v>22094.79</v>
+        <v>29243.32</v>
+      </c>
+      <c r="N32" t="n">
+        <v>29194.69</v>
+      </c>
+      <c r="O32" t="n">
+        <v>29263.56</v>
+      </c>
+      <c r="P32" t="n">
+        <v>29231.88</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>29268.45</v>
+      </c>
+      <c r="R32" t="n">
+        <v>29268.66</v>
+      </c>
+      <c r="S32" t="n">
+        <v>29267.83</v>
+      </c>
+      <c r="T32" t="n">
+        <v>29204.75</v>
+      </c>
+      <c r="U32" t="n">
+        <v>35753.63</v>
+      </c>
+      <c r="V32" t="n">
+        <v>35723.85</v>
+      </c>
+      <c r="W32" t="n">
+        <v>35708.85</v>
+      </c>
+      <c r="X32" t="n">
+        <v>35748.41</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>35702.75</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>35720.48</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>35774.4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>69990.33</v>
-      </c>
-      <c r="C33" t="inlineStr"/>
+        <v>22094.79</v>
+      </c>
+      <c r="C33" t="n">
+        <v>25768.64</v>
+      </c>
       <c r="D33" t="n">
-        <v>79868.35000000001</v>
+        <v>25787.04</v>
       </c>
       <c r="E33" t="n">
-        <v>79990.63</v>
+        <v>25783.31</v>
       </c>
       <c r="F33" t="n">
-        <v>80045.2</v>
+        <v>25794.05</v>
       </c>
       <c r="G33" t="n">
-        <v>85027.13</v>
+        <v>25760.87</v>
       </c>
       <c r="H33" t="n">
-        <v>85000.55</v>
+        <v>21169.15</v>
       </c>
       <c r="I33" t="n">
-        <v>84941.17</v>
+        <v>21193.41</v>
       </c>
       <c r="J33" t="n">
-        <v>85047.63</v>
+        <v>21227.45</v>
       </c>
       <c r="K33" t="n">
-        <v>84955.78999999999</v>
+        <v>16615.23</v>
       </c>
       <c r="L33" t="n">
-        <v>84886.72</v>
+        <v>16637.02</v>
       </c>
       <c r="M33" t="n">
-        <v>80025.5</v>
+        <v>16636.59</v>
+      </c>
+      <c r="N33" t="n">
+        <v>24529.65</v>
+      </c>
+      <c r="O33" t="n">
+        <v>24501.49</v>
+      </c>
+      <c r="P33" t="n">
+        <v>24505.64</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>24498.1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>24506.16</v>
+      </c>
+      <c r="S33" t="n">
+        <v>24512.35</v>
+      </c>
+      <c r="T33" t="n">
+        <v>24501.81</v>
+      </c>
+      <c r="U33" t="n">
+        <v>24477.67</v>
+      </c>
+      <c r="V33" t="n">
+        <v>24498</v>
+      </c>
+      <c r="W33" t="n">
+        <v>23041.43</v>
+      </c>
+      <c r="X33" t="n">
+        <v>23034</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>22965.63</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>17732.74</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>17728.86</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>98147.53999999999</v>
+        <v>80025.5</v>
       </c>
       <c r="C34" t="n">
-        <v>98071.52</v>
+        <v>80007.81</v>
       </c>
       <c r="D34" t="n">
-        <v>98042.71000000001</v>
+        <v>79670.78999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>98330.16</v>
+        <v>79906.95</v>
       </c>
       <c r="F34" t="n">
-        <v>98138.17999999999</v>
+        <v>79970.25</v>
       </c>
       <c r="G34" t="n">
-        <v>98015.89</v>
+        <v>79906.16</v>
       </c>
       <c r="H34" t="n">
-        <v>97888.31</v>
+        <v>79872.69</v>
       </c>
       <c r="I34" t="n">
-        <v>98102.06</v>
+        <v>79919.89</v>
       </c>
       <c r="J34" t="n">
-        <v>97994.44</v>
+        <v>80082.48</v>
       </c>
       <c r="K34" t="n">
-        <v>98082.98</v>
+        <v>79980.85000000001</v>
       </c>
       <c r="L34" t="n">
-        <v>98037.31</v>
+        <v>80073.78999999999</v>
       </c>
       <c r="M34" t="n">
-        <v>98304.58</v>
+        <v>80083.72</v>
+      </c>
+      <c r="N34" t="n">
+        <v>80091.55</v>
+      </c>
+      <c r="O34" t="n">
+        <v>79962.2</v>
+      </c>
+      <c r="P34" t="n">
+        <v>79920.31</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>79989.44</v>
+      </c>
+      <c r="R34" t="n">
+        <v>79952.45</v>
+      </c>
+      <c r="S34" t="n">
+        <v>103727.61</v>
+      </c>
+      <c r="T34" t="n">
+        <v>103512.98</v>
+      </c>
+      <c r="U34" t="n">
+        <v>103774.63</v>
+      </c>
+      <c r="V34" t="n">
+        <v>103561.91</v>
+      </c>
+      <c r="W34" t="n">
+        <v>120151.59</v>
+      </c>
+      <c r="X34" t="n">
+        <v>125744.05</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>125864.94</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>133848.47</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>133619.72</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>58260.09</v>
+        <v>98304.58</v>
       </c>
       <c r="C35" t="n">
-        <v>58343.03</v>
+        <v>97922.42</v>
       </c>
       <c r="D35" t="n">
-        <v>63330.51</v>
+        <v>98059.34</v>
       </c>
       <c r="E35" t="n">
-        <v>65338.67</v>
+        <v>173528.59</v>
       </c>
       <c r="F35" t="n">
-        <v>81271.64</v>
+        <v>173507.37</v>
       </c>
       <c r="G35" t="n">
-        <v>71384.10000000001</v>
+        <v>173599.91</v>
       </c>
       <c r="H35" t="n">
-        <v>85286.48</v>
+        <v>173166.57</v>
       </c>
       <c r="I35" t="n">
-        <v>70244.48</v>
+        <v>173477.18</v>
       </c>
       <c r="J35" t="n">
-        <v>65731.89</v>
+        <v>173622.38</v>
       </c>
       <c r="K35" t="n">
-        <v>65799.03999999999</v>
+        <v>173647.48</v>
       </c>
       <c r="L35" t="n">
-        <v>65858.35000000001</v>
+        <v>173422.59</v>
       </c>
       <c r="M35" t="n">
-        <v>65814.77</v>
+        <v>173294.09</v>
+      </c>
+      <c r="N35" t="n">
+        <v>173252.9</v>
+      </c>
+      <c r="O35" t="n">
+        <v>173326</v>
+      </c>
+      <c r="P35" t="n">
+        <v>205954.64</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>206241.16</v>
+      </c>
+      <c r="R35" t="n">
+        <v>206531.14</v>
+      </c>
+      <c r="S35" t="n">
+        <v>206017.76</v>
+      </c>
+      <c r="T35" t="n">
+        <v>205163.98</v>
+      </c>
+      <c r="U35" t="n">
+        <v>206269.44</v>
+      </c>
+      <c r="V35" t="n">
+        <v>206465.38</v>
+      </c>
+      <c r="W35" t="n">
+        <v>223257.82</v>
+      </c>
+      <c r="X35" t="n">
+        <v>223201.26</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>222923.06</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>223173.59</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>223163.49</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>84985.53999999999</v>
+        <v>65814.77</v>
       </c>
       <c r="C36" t="n">
-        <v>84911.81</v>
+        <v>65886.63</v>
       </c>
       <c r="D36" t="n">
-        <v>84917.67999999999</v>
+        <v>65560.39</v>
       </c>
       <c r="E36" t="n">
-        <v>84821.64</v>
+        <v>65893.27</v>
       </c>
       <c r="F36" t="n">
-        <v>84724.11</v>
+        <v>71895.44</v>
       </c>
       <c r="G36" t="n">
-        <v>68426.75999999999</v>
+        <v>74397.96000000001</v>
       </c>
       <c r="H36" t="n">
-        <v>68726.00999999999</v>
+        <v>69248.99000000001</v>
       </c>
       <c r="I36" t="n">
-        <v>68650.21000000001</v>
+        <v>72369.28999999999</v>
       </c>
       <c r="J36" t="n">
-        <v>68687.31</v>
+        <v>74286.17</v>
       </c>
       <c r="K36" t="n">
-        <v>68629.10000000001</v>
+        <v>74254.2</v>
       </c>
       <c r="L36" t="n">
-        <v>68660.81</v>
+        <v>79244.2</v>
       </c>
       <c r="M36" t="n">
-        <v>68646.23</v>
+        <v>79303.44</v>
+      </c>
+      <c r="N36" t="n">
+        <v>88367.28</v>
+      </c>
+      <c r="O36" t="n">
+        <v>90352.37</v>
+      </c>
+      <c r="P36" t="n">
+        <v>80344.94</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>92343.36</v>
+      </c>
+      <c r="R36" t="n">
+        <v>92200.46000000001</v>
+      </c>
+      <c r="S36" t="n">
+        <v>92302.89</v>
+      </c>
+      <c r="T36" t="n">
+        <v>91782.62</v>
+      </c>
+      <c r="U36" t="n">
+        <v>87446.62</v>
+      </c>
+      <c r="V36" t="n">
+        <v>87322.57000000001</v>
+      </c>
+      <c r="W36" t="n">
+        <v>87310.13</v>
+      </c>
+      <c r="X36" t="n">
+        <v>90279.33</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>88326.46000000001</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>76424.63</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>76342.09</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>60333.63</v>
+        <v>68646.23</v>
       </c>
       <c r="C37" t="n">
-        <v>60354.15</v>
+        <v>81655.73</v>
       </c>
       <c r="D37" t="n">
-        <v>56713.04</v>
+        <v>81321.06</v>
       </c>
       <c r="E37" t="n">
-        <v>55729.21</v>
+        <v>81725.46000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>60122.7</v>
+        <v>81463.74000000001</v>
       </c>
       <c r="G37" t="n">
-        <v>60943.16</v>
+        <v>81489.32000000001</v>
       </c>
       <c r="H37" t="n">
-        <v>61130.69</v>
+        <v>81606.92</v>
       </c>
       <c r="I37" t="n">
-        <v>61108.72</v>
+        <v>81509.03999999999</v>
       </c>
       <c r="J37" t="n">
-        <v>61069.43</v>
+        <v>81642.44</v>
       </c>
       <c r="K37" t="n">
-        <v>61139.71</v>
+        <v>63777.39</v>
       </c>
       <c r="L37" t="n">
-        <v>61114.75</v>
+        <v>63838.31</v>
       </c>
       <c r="M37" t="n">
-        <v>59214.01</v>
+        <v>63832.37</v>
+      </c>
+      <c r="N37" t="n">
+        <v>94206.45</v>
+      </c>
+      <c r="O37" t="n">
+        <v>82226.8</v>
+      </c>
+      <c r="P37" t="n">
+        <v>75726.08</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>75768.41</v>
+      </c>
+      <c r="R37" t="n">
+        <v>75749.98</v>
+      </c>
+      <c r="S37" t="n">
+        <v>75675.07000000001</v>
+      </c>
+      <c r="T37" t="n">
+        <v>75737.62</v>
+      </c>
+      <c r="U37" t="n">
+        <v>75635.89999999999</v>
+      </c>
+      <c r="V37" t="n">
+        <v>75569.85000000001</v>
+      </c>
+      <c r="W37" t="n">
+        <v>61593.74</v>
+      </c>
+      <c r="X37" t="n">
+        <v>61447.3</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>61598.71</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>50663.59</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>50809.1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1120946.22</v>
+        <v>59214.01</v>
       </c>
       <c r="C38" t="n">
-        <v>1119813.64</v>
+        <v>56052.81</v>
       </c>
       <c r="D38" t="n">
-        <v>1022894.4</v>
-      </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
+        <v>55975.35</v>
+      </c>
+      <c r="E38" t="n">
+        <v>56772.95</v>
+      </c>
+      <c r="F38" t="n">
+        <v>55945.98</v>
+      </c>
+      <c r="G38" t="n">
+        <v>61046.21</v>
+      </c>
+      <c r="H38" t="n">
+        <v>60966.55</v>
+      </c>
+      <c r="I38" t="n">
+        <v>61033.26</v>
+      </c>
+      <c r="J38" t="n">
+        <v>60949.59</v>
+      </c>
+      <c r="K38" t="n">
+        <v>61080.07</v>
+      </c>
+      <c r="L38" t="n">
+        <v>60374.76</v>
+      </c>
+      <c r="M38" t="n">
+        <v>57367.11</v>
+      </c>
+      <c r="N38" t="n">
+        <v>56514.1</v>
+      </c>
+      <c r="O38" t="n">
+        <v>56933.4</v>
+      </c>
+      <c r="P38" t="n">
+        <v>61052.12</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>59551.56</v>
+      </c>
+      <c r="R38" t="n">
+        <v>59403.95</v>
+      </c>
+      <c r="S38" t="n">
+        <v>59505.3</v>
+      </c>
+      <c r="T38" t="n">
+        <v>64921.33</v>
+      </c>
+      <c r="U38" t="n">
+        <v>65144.06</v>
+      </c>
+      <c r="V38" t="n">
+        <v>64275.13</v>
+      </c>
+      <c r="W38" t="n">
+        <v>64263.89</v>
+      </c>
+      <c r="X38" t="n">
+        <v>71975.74000000001</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>71813.89999999999</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>71978.85000000001</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>71894.34</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -2059,40 +3695,82 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1181522.05</v>
+        <v>1334142.98</v>
       </c>
       <c r="C39" t="n">
-        <v>1182138.57</v>
+        <v>1630409.2</v>
       </c>
       <c r="D39" t="n">
-        <v>1182423.26</v>
+        <v>1625877.16</v>
       </c>
       <c r="E39" t="n">
-        <v>1182350.01</v>
+        <v>1740753.54</v>
       </c>
       <c r="F39" t="n">
-        <v>1182094.09</v>
+        <v>1799130.26</v>
       </c>
       <c r="G39" t="n">
-        <v>1182805.94</v>
+        <v>1798449.28</v>
       </c>
       <c r="H39" t="n">
-        <v>1182778.25</v>
+        <v>1797784.55</v>
       </c>
       <c r="I39" t="n">
-        <v>1216011.05</v>
+        <v>1799366.33</v>
       </c>
       <c r="J39" t="n">
-        <v>1217285.82</v>
+        <v>1799327.95</v>
       </c>
       <c r="K39" t="n">
-        <v>1217395.6</v>
+        <v>1798317.92</v>
       </c>
       <c r="L39" t="n">
-        <v>1217031.67</v>
+        <v>1799149.6</v>
       </c>
       <c r="M39" t="n">
-        <v>1334142.98</v>
+        <v>1797700.15</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1798641.31</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1798895.46</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1797844.72</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1865493.41</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1863519.39</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1865756.75</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1864086.38</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1911831.51</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1912393.77</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1912846.16</v>
+      </c>
+      <c r="X39" t="n">
+        <v>2008235.49</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>2008067.14</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>2007414.83</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>2006711.09</v>
       </c>
     </row>
     <row r="40">
@@ -2102,40 +3780,82 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>469846.65</v>
+        <v>469987.15</v>
       </c>
       <c r="C40" t="n">
-        <v>470155.03</v>
+        <v>470036.23</v>
       </c>
       <c r="D40" t="n">
-        <v>469751.05</v>
+        <v>469079.68</v>
       </c>
       <c r="E40" t="n">
-        <v>470397.56</v>
+        <v>470037.67</v>
       </c>
       <c r="F40" t="n">
-        <v>469835.79</v>
+        <v>469963.18</v>
       </c>
       <c r="G40" t="n">
-        <v>470330.04</v>
+        <v>470438.41</v>
       </c>
       <c r="H40" t="n">
-        <v>469891.29</v>
+        <v>470453.35</v>
       </c>
       <c r="I40" t="n">
-        <v>469619.69</v>
+        <v>470102.28</v>
       </c>
       <c r="J40" t="n">
-        <v>470380.13</v>
+        <v>469852.64</v>
       </c>
       <c r="K40" t="n">
-        <v>469922.78</v>
+        <v>469930.25</v>
       </c>
       <c r="L40" t="n">
-        <v>469799.12</v>
+        <v>469833.31</v>
       </c>
       <c r="M40" t="n">
-        <v>469987.15</v>
+        <v>469711.58</v>
+      </c>
+      <c r="N40" t="n">
+        <v>470006.55</v>
+      </c>
+      <c r="O40" t="n">
+        <v>469687.67</v>
+      </c>
+      <c r="P40" t="n">
+        <v>469707.63</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>469758.67</v>
+      </c>
+      <c r="R40" t="n">
+        <v>469636.69</v>
+      </c>
+      <c r="S40" t="n">
+        <v>469550.28</v>
+      </c>
+      <c r="T40" t="n">
+        <v>469991.66</v>
+      </c>
+      <c r="U40" t="n">
+        <v>469706.18</v>
+      </c>
+      <c r="V40" t="n">
+        <v>470231.37</v>
+      </c>
+      <c r="W40" t="n">
+        <v>470164.52</v>
+      </c>
+      <c r="X40" t="n">
+        <v>470217.64</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>469802.26</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>469546.6</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>469510.93</v>
       </c>
     </row>
     <row r="41">
@@ -2145,40 +3865,82 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>37010.05</v>
+        <v>37003.6</v>
       </c>
       <c r="C41" t="n">
-        <v>37052.93</v>
+        <v>37084.48</v>
       </c>
       <c r="D41" t="n">
-        <v>37023.59</v>
+        <v>36946.37</v>
       </c>
       <c r="E41" t="n">
-        <v>37034.58</v>
+        <v>37066.15</v>
       </c>
       <c r="F41" t="n">
-        <v>37008.79</v>
+        <v>37094.46</v>
       </c>
       <c r="G41" t="n">
-        <v>37074.61</v>
+        <v>37071.23</v>
       </c>
       <c r="H41" t="n">
-        <v>37101.31</v>
+        <v>37084.81</v>
       </c>
       <c r="I41" t="n">
-        <v>37058.65</v>
+        <v>37024.95</v>
       </c>
       <c r="J41" t="n">
-        <v>37102.09</v>
+        <v>37010.1</v>
       </c>
       <c r="K41" t="n">
-        <v>37006.32</v>
+        <v>37021.91</v>
       </c>
       <c r="L41" t="n">
-        <v>37017.81</v>
+        <v>37079.87</v>
       </c>
       <c r="M41" t="n">
-        <v>37003.6</v>
+        <v>37086.61</v>
+      </c>
+      <c r="N41" t="n">
+        <v>37076.72</v>
+      </c>
+      <c r="O41" t="n">
+        <v>37029.63</v>
+      </c>
+      <c r="P41" t="n">
+        <v>37054.47</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>37071.36</v>
+      </c>
+      <c r="R41" t="n">
+        <v>37110.96</v>
+      </c>
+      <c r="S41" t="n">
+        <v>37073.73</v>
+      </c>
+      <c r="T41" t="n">
+        <v>36848.2</v>
+      </c>
+      <c r="U41" t="n">
+        <v>37001.67</v>
+      </c>
+      <c r="V41" t="n">
+        <v>37110.19</v>
+      </c>
+      <c r="W41" t="n">
+        <v>37022.35</v>
+      </c>
+      <c r="X41" t="n">
+        <v>37063.53</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>37066.82</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>37009.45</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>36993.3</v>
       </c>
     </row>
     <row r="42">
@@ -2188,40 +3950,82 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>191166.19</v>
+        <v>175379.71</v>
       </c>
       <c r="C42" t="n">
-        <v>212230.28</v>
+        <v>182970</v>
       </c>
       <c r="D42" t="n">
-        <v>195009.18</v>
+        <v>181720.53</v>
       </c>
       <c r="E42" t="n">
-        <v>175711.96</v>
+        <v>189772.19</v>
       </c>
       <c r="F42" t="n">
-        <v>176139.1</v>
+        <v>193078.12</v>
       </c>
       <c r="G42" t="n">
-        <v>176444.07</v>
+        <v>192681.31</v>
       </c>
       <c r="H42" t="n">
-        <v>177028.84</v>
+        <v>192472.88</v>
       </c>
       <c r="I42" t="n">
-        <v>175978.87</v>
+        <v>193264.49</v>
       </c>
       <c r="J42" t="n">
-        <v>175696.59</v>
+        <v>195886.09</v>
       </c>
       <c r="K42" t="n">
-        <v>175148.91</v>
+        <v>195975.14</v>
       </c>
       <c r="L42" t="n">
-        <v>173729.3</v>
+        <v>199373.47</v>
       </c>
       <c r="M42" t="n">
-        <v>175379.71</v>
+        <v>199940.76</v>
+      </c>
+      <c r="N42" t="n">
+        <v>203123.26</v>
+      </c>
+      <c r="O42" t="n">
+        <v>202815.14</v>
+      </c>
+      <c r="P42" t="n">
+        <v>205183.27</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>209757.22</v>
+      </c>
+      <c r="R42" t="n">
+        <v>212170.6</v>
+      </c>
+      <c r="S42" t="n">
+        <v>218649.49</v>
+      </c>
+      <c r="T42" t="n">
+        <v>217053.49</v>
+      </c>
+      <c r="U42" t="n">
+        <v>218098.95</v>
+      </c>
+      <c r="V42" t="n">
+        <v>218236.81</v>
+      </c>
+      <c r="W42" t="n">
+        <v>220985.19</v>
+      </c>
+      <c r="X42" t="n">
+        <v>223918.12</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>220009.56</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>221109.14</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>218872.14</v>
       </c>
     </row>
     <row r="43">
@@ -2231,40 +4035,82 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>7455481.48</v>
+        <v>6839808.79</v>
       </c>
       <c r="C43" t="n">
-        <v>7003599.23</v>
+        <v>7135829.82</v>
       </c>
       <c r="D43" t="n">
-        <v>7800367.38</v>
+        <v>7087100.64</v>
       </c>
       <c r="E43" t="n">
-        <v>6852766.56</v>
+        <v>7401115.51</v>
       </c>
       <c r="F43" t="n">
-        <v>6869425.04</v>
+        <v>7530046.66</v>
       </c>
       <c r="G43" t="n">
-        <v>6881318.87</v>
+        <v>7514570.9</v>
       </c>
       <c r="H43" t="n">
-        <v>6904124.71</v>
+        <v>7506442.32</v>
       </c>
       <c r="I43" t="n">
-        <v>6863175.75</v>
+        <v>7537315.22</v>
       </c>
       <c r="J43" t="n">
-        <v>6852166.92</v>
+        <v>7639557.65</v>
       </c>
       <c r="K43" t="n">
-        <v>6830807.33</v>
+        <v>7643030.53</v>
       </c>
       <c r="L43" t="n">
-        <v>6775442.64</v>
+        <v>7775565.14</v>
       </c>
       <c r="M43" t="n">
-        <v>6839808.79</v>
+        <v>7997630.34</v>
+      </c>
+      <c r="N43" t="n">
+        <v>8124930.41</v>
+      </c>
+      <c r="O43" t="n">
+        <v>8112605.41</v>
+      </c>
+      <c r="P43" t="n">
+        <v>8207330.95</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>8390288.710000001</v>
+      </c>
+      <c r="R43" t="n">
+        <v>8486823.939999999</v>
+      </c>
+      <c r="S43" t="n">
+        <v>8745979.560000001</v>
+      </c>
+      <c r="T43" t="n">
+        <v>8682139.439999999</v>
+      </c>
+      <c r="U43" t="n">
+        <v>8723958.08</v>
+      </c>
+      <c r="V43" t="n">
+        <v>8729472.4</v>
+      </c>
+      <c r="W43" t="n">
+        <v>8839407.51</v>
+      </c>
+      <c r="X43" t="n">
+        <v>8956724.630000001</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>8800382.210000001</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>8844365.77</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>8754885.779999999</v>
       </c>
     </row>
   </sheetData>
